--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1930873.676773496</v>
+        <v>-1933559.249397352</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9503610.829619881</v>
+        <v>9503610.829619879</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673418</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,10 +1385,10 @@
         <v>410.9438791401057</v>
       </c>
       <c r="H11" t="n">
-        <v>198.0660153969224</v>
+        <v>294.834643782498</v>
       </c>
       <c r="I11" t="n">
-        <v>42.43100206708752</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.6925843652644</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>204.0149470274405</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9969442378342</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>2.930887933109432</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>135.0113223260428</v>
       </c>
       <c r="H12" t="n">
-        <v>89.71135199332306</v>
+        <v>89.71135199332308</v>
       </c>
       <c r="I12" t="n">
-        <v>9.099573764716098</v>
+        <v>9.099573764716126</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>119.2681009638743</v>
+        <v>155.1616886500803</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0357455504794</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.8433664692232</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.6512618654794</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>89.37896942929819</v>
+        <v>89.37896942929821</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5914086123697</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.212380239692</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1607,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>270.9413649208768</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>294.834643782498</v>
       </c>
       <c r="I14" t="n">
-        <v>42.43100206708752</v>
+        <v>42.43100206708758</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>204.0149470274405</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9969442378342</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>140.4828540104423</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>135.0113223260428</v>
       </c>
       <c r="H15" t="n">
-        <v>89.71135199332306</v>
+        <v>89.71135199332308</v>
       </c>
       <c r="I15" t="n">
-        <v>9.099573764716098</v>
+        <v>9.099573764716126</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0357455504794</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.8433664692232</v>
       </c>
       <c r="I16" t="n">
         <v>96.6512618654794</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>89.37896942929821</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.9422052197322</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5914086123697</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>155.034695401367</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>173.6530678133833</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>335.3092422136223</v>
       </c>
       <c r="C17" t="n">
-        <v>317.8482923211492</v>
+        <v>317.8482923211502</v>
       </c>
       <c r="D17" t="n">
         <v>307.2584421708247</v>
@@ -1895,13 +1895,13 @@
         <v>62.26798491540609</v>
       </c>
       <c r="T17" t="n">
-        <v>156.5903475775822</v>
+        <v>156.5903475775821</v>
       </c>
       <c r="U17" t="n">
-        <v>203.5723447879759</v>
+        <v>203.5723447879758</v>
       </c>
       <c r="V17" t="n">
-        <v>280.3276590202766</v>
+        <v>280.3276590202765</v>
       </c>
       <c r="W17" t="n">
         <v>301.8163692675547</v>
@@ -1910,7 +1910,7 @@
         <v>322.3065012286107</v>
       </c>
       <c r="Y17" t="n">
-        <v>338.8133392061953</v>
+        <v>338.8133392061952</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>135.0113223260428</v>
       </c>
       <c r="H18" t="n">
-        <v>89.71135199332306</v>
+        <v>89.71135199332308</v>
       </c>
       <c r="I18" t="n">
-        <v>9.099573764716098</v>
+        <v>9.099573764716126</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>101.190873568354</v>
       </c>
       <c r="E19" t="n">
-        <v>99.00936319671086</v>
+        <v>99.00936319671084</v>
       </c>
       <c r="F19" t="n">
-        <v>97.99644857307294</v>
+        <v>97.99644857307291</v>
       </c>
       <c r="G19" t="n">
         <v>118.6111461006211</v>
       </c>
       <c r="H19" t="n">
-        <v>97.41876701936489</v>
+        <v>97.41876701936486</v>
       </c>
       <c r="I19" t="n">
-        <v>49.22666241562109</v>
+        <v>49.22666241562107</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95436997943989</v>
+        <v>41.95436997943987</v>
       </c>
       <c r="S19" t="n">
         <v>142.5176057698739</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.2679849154061</v>
+        <v>62.26798491540615</v>
       </c>
       <c r="T20" t="n">
-        <v>156.5903475775822</v>
+        <v>156.5903475775814</v>
       </c>
       <c r="U20" t="n">
         <v>203.5723447879759</v>
@@ -2175,10 +2175,10 @@
         <v>135.0113223260428</v>
       </c>
       <c r="H21" t="n">
-        <v>89.71135199332306</v>
+        <v>89.71135199332308</v>
       </c>
       <c r="I21" t="n">
-        <v>9.099573764716098</v>
+        <v>9.099573764716126</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>97.41876701936491</v>
       </c>
       <c r="I22" t="n">
-        <v>49.2266624156211</v>
+        <v>49.22666241562111</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95436997943989</v>
+        <v>41.9543699794399</v>
       </c>
       <c r="S22" t="n">
         <v>142.5176057698739</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.2679849154061</v>
+        <v>62.26798491540615</v>
       </c>
       <c r="T23" t="n">
         <v>156.5903475775822</v>
@@ -2412,10 +2412,10 @@
         <v>135.0113223260428</v>
       </c>
       <c r="H24" t="n">
-        <v>89.71135199332306</v>
+        <v>89.71135199332308</v>
       </c>
       <c r="I24" t="n">
-        <v>9.099573764716098</v>
+        <v>9.099573764716126</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>97.41876701936491</v>
       </c>
       <c r="I25" t="n">
-        <v>49.2266624156211</v>
+        <v>49.22666241562111</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95436997943989</v>
+        <v>41.9543699794399</v>
       </c>
       <c r="S25" t="n">
         <v>142.5176057698739</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.26798491540612</v>
+        <v>62.26798491540615</v>
       </c>
       <c r="T26" t="n">
         <v>156.5903475775822</v>
@@ -2649,10 +2649,10 @@
         <v>135.0113223260428</v>
       </c>
       <c r="H27" t="n">
-        <v>89.71135199332306</v>
+        <v>89.71135199332308</v>
       </c>
       <c r="I27" t="n">
-        <v>9.099573764716098</v>
+        <v>9.099573764716126</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>97.41876701936491</v>
       </c>
       <c r="I28" t="n">
-        <v>49.2266624156211</v>
+        <v>49.22666241562111</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95436997943989</v>
+        <v>41.9543699794399</v>
       </c>
       <c r="S28" t="n">
         <v>142.5176057698739</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.26798491540612</v>
+        <v>62.26798491540615</v>
       </c>
       <c r="T29" t="n">
         <v>156.5903475775822</v>
@@ -2886,10 +2886,10 @@
         <v>135.0113223260428</v>
       </c>
       <c r="H30" t="n">
-        <v>89.71135199332306</v>
+        <v>89.71135199332308</v>
       </c>
       <c r="I30" t="n">
-        <v>9.099573764716098</v>
+        <v>9.099573764716126</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.407380732079</v>
+        <v>132.4073807320781</v>
       </c>
       <c r="C31" t="n">
         <v>119.8222216487695</v>
@@ -2965,10 +2965,10 @@
         <v>118.6111461006211</v>
       </c>
       <c r="H31" t="n">
-        <v>97.41876701936454</v>
+        <v>97.41876701936491</v>
       </c>
       <c r="I31" t="n">
-        <v>49.2266624156211</v>
+        <v>49.22666241562111</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95436997943989</v>
+        <v>41.9543699794399</v>
       </c>
       <c r="S31" t="n">
         <v>142.5176057698739</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2679849154061</v>
+        <v>62.26798491540612</v>
       </c>
       <c r="T32" t="n">
         <v>156.5903475775822</v>
@@ -3123,10 +3123,10 @@
         <v>135.0113223260428</v>
       </c>
       <c r="H33" t="n">
-        <v>89.71135199332306</v>
+        <v>89.71135199332308</v>
       </c>
       <c r="I33" t="n">
-        <v>9.099573764716098</v>
+        <v>9.099573764716126</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>119.8222216487695</v>
       </c>
       <c r="D34" t="n">
-        <v>101.1908735683541</v>
+        <v>101.190873568354</v>
       </c>
       <c r="E34" t="n">
-        <v>99.00936319671088</v>
+        <v>99.00936319671086</v>
       </c>
       <c r="F34" t="n">
-        <v>97.99644857307295</v>
+        <v>97.99644857307294</v>
       </c>
       <c r="G34" t="n">
         <v>118.6111461006211</v>
       </c>
       <c r="H34" t="n">
-        <v>97.41876701936492</v>
+        <v>97.41876701936491</v>
       </c>
       <c r="I34" t="n">
-        <v>49.22666241562111</v>
+        <v>49.2266624156211</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.9543699794399</v>
+        <v>41.95436997943991</v>
       </c>
       <c r="S34" t="n">
         <v>142.5176057698739</v>
       </c>
       <c r="T34" t="n">
-        <v>172.1668091625115</v>
+        <v>172.1668091625114</v>
       </c>
       <c r="U34" t="n">
         <v>238.7877807898337</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.3092422136223</v>
+        <v>335.3092422136222</v>
       </c>
       <c r="C35" t="n">
         <v>317.8482923211492</v>
       </c>
       <c r="D35" t="n">
-        <v>307.2584421708247</v>
+        <v>307.2584421708246</v>
       </c>
       <c r="E35" t="n">
-        <v>334.5057706224035</v>
+        <v>334.5057706224034</v>
       </c>
       <c r="F35" t="n">
         <v>359.4514462918531</v>
       </c>
       <c r="G35" t="n">
-        <v>363.5192796902474</v>
+        <v>363.5192796902473</v>
       </c>
       <c r="H35" t="n">
         <v>247.4100443326397</v>
@@ -3317,22 +3317,22 @@
         <v>62.26798491540608</v>
       </c>
       <c r="T35" t="n">
-        <v>156.5903475775822</v>
+        <v>156.5903475775821</v>
       </c>
       <c r="U35" t="n">
-        <v>203.5723447879759</v>
+        <v>203.5723447879758</v>
       </c>
       <c r="V35" t="n">
-        <v>280.3276590202766</v>
+        <v>280.3276590202765</v>
       </c>
       <c r="W35" t="n">
-        <v>301.8163692675547</v>
+        <v>301.8163692675546</v>
       </c>
       <c r="X35" t="n">
         <v>322.3065012286107</v>
       </c>
       <c r="Y35" t="n">
-        <v>338.8133392061953</v>
+        <v>338.8133392061952</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>135.0113223260428</v>
       </c>
       <c r="H36" t="n">
-        <v>89.71135199332306</v>
+        <v>89.71135199332308</v>
       </c>
       <c r="I36" t="n">
-        <v>9.099573764716098</v>
+        <v>9.099573764716126</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>101.190873568354</v>
       </c>
       <c r="E37" t="n">
-        <v>99.00936319671086</v>
+        <v>99.00936319671084</v>
       </c>
       <c r="F37" t="n">
-        <v>97.99644857307294</v>
+        <v>97.99644857307291</v>
       </c>
       <c r="G37" t="n">
         <v>118.6111461006211</v>
       </c>
       <c r="H37" t="n">
-        <v>97.41876701936491</v>
+        <v>97.41876701936486</v>
       </c>
       <c r="I37" t="n">
-        <v>49.22666241562109</v>
+        <v>49.22666241562107</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95436997943988</v>
+        <v>41.95436997943987</v>
       </c>
       <c r="S37" t="n">
         <v>142.5176057698739</v>
@@ -3503,7 +3503,7 @@
         <v>335.3092422136223</v>
       </c>
       <c r="C38" t="n">
-        <v>317.8482923211493</v>
+        <v>317.8482923211492</v>
       </c>
       <c r="D38" t="n">
         <v>307.2584421708247</v>
@@ -3512,10 +3512,10 @@
         <v>334.5057706224035</v>
       </c>
       <c r="F38" t="n">
-        <v>359.4514462918532</v>
+        <v>359.4514462918531</v>
       </c>
       <c r="G38" t="n">
-        <v>363.5192796902475</v>
+        <v>363.5192796902474</v>
       </c>
       <c r="H38" t="n">
         <v>247.4100443326397</v>
@@ -3560,13 +3560,13 @@
         <v>203.5723447879759</v>
       </c>
       <c r="V38" t="n">
-        <v>280.3276590202767</v>
+        <v>280.3276590202766</v>
       </c>
       <c r="W38" t="n">
-        <v>301.8163692675548</v>
+        <v>301.8163692675547</v>
       </c>
       <c r="X38" t="n">
-        <v>322.3065012286108</v>
+        <v>322.3065012286107</v>
       </c>
       <c r="Y38" t="n">
         <v>338.8133392061953</v>
@@ -3597,10 +3597,10 @@
         <v>135.0113223260428</v>
       </c>
       <c r="H39" t="n">
-        <v>89.71135199332306</v>
+        <v>89.71135199332308</v>
       </c>
       <c r="I39" t="n">
-        <v>9.099573764716098</v>
+        <v>9.099573764716126</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>132.407380732079</v>
       </c>
       <c r="C40" t="n">
-        <v>119.8222216487696</v>
+        <v>119.8222216487695</v>
       </c>
       <c r="D40" t="n">
-        <v>101.1908735683541</v>
+        <v>101.190873568354</v>
       </c>
       <c r="E40" t="n">
-        <v>99.00936319671089</v>
+        <v>99.00936319671086</v>
       </c>
       <c r="F40" t="n">
-        <v>97.99644857307297</v>
+        <v>97.99644857307294</v>
       </c>
       <c r="G40" t="n">
         <v>118.6111461006211</v>
       </c>
       <c r="H40" t="n">
-        <v>97.41876701936494</v>
+        <v>97.41876701936489</v>
       </c>
       <c r="I40" t="n">
-        <v>49.22666241562113</v>
+        <v>49.2266624156211</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95436997943992</v>
+        <v>41.9543699794399</v>
       </c>
       <c r="S40" t="n">
         <v>142.5176057698739</v>
       </c>
       <c r="T40" t="n">
-        <v>172.1668091625115</v>
+        <v>172.1668091625114</v>
       </c>
       <c r="U40" t="n">
-        <v>238.7877807898338</v>
+        <v>238.7877807898337</v>
       </c>
       <c r="V40" t="n">
         <v>204.7130438739697</v>
@@ -3724,7 +3724,7 @@
         <v>239.0983988867327</v>
       </c>
       <c r="X40" t="n">
-        <v>178.2850559391789</v>
+        <v>178.2850559391788</v>
       </c>
       <c r="Y40" t="n">
         <v>171.1600539022365</v>
@@ -3740,7 +3740,7 @@
         <v>335.3092422136223</v>
       </c>
       <c r="C41" t="n">
-        <v>317.8482923211493</v>
+        <v>317.8482923211492</v>
       </c>
       <c r="D41" t="n">
         <v>307.2584421708247</v>
@@ -3749,10 +3749,10 @@
         <v>334.5057706224035</v>
       </c>
       <c r="F41" t="n">
-        <v>359.4514462918532</v>
+        <v>359.4514462918531</v>
       </c>
       <c r="G41" t="n">
-        <v>363.5192796902475</v>
+        <v>363.5192796902474</v>
       </c>
       <c r="H41" t="n">
         <v>247.4100443326397</v>
@@ -3797,13 +3797,13 @@
         <v>203.5723447879759</v>
       </c>
       <c r="V41" t="n">
-        <v>280.3276590202767</v>
+        <v>280.3276590202766</v>
       </c>
       <c r="W41" t="n">
-        <v>301.8163692675548</v>
+        <v>301.8163692675547</v>
       </c>
       <c r="X41" t="n">
-        <v>322.3065012286108</v>
+        <v>322.3065012286107</v>
       </c>
       <c r="Y41" t="n">
         <v>338.8133392061953</v>
@@ -3834,10 +3834,10 @@
         <v>135.0113223260428</v>
       </c>
       <c r="H42" t="n">
-        <v>89.71135199332306</v>
+        <v>89.71135199332308</v>
       </c>
       <c r="I42" t="n">
-        <v>9.099573764716098</v>
+        <v>9.099573764716126</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>132.407380732079</v>
       </c>
       <c r="C43" t="n">
-        <v>119.8222216487696</v>
+        <v>119.8222216487695</v>
       </c>
       <c r="D43" t="n">
-        <v>101.1908735683541</v>
+        <v>101.190873568354</v>
       </c>
       <c r="E43" t="n">
-        <v>99.00936319671089</v>
+        <v>99.00936319671086</v>
       </c>
       <c r="F43" t="n">
-        <v>97.99644857307297</v>
+        <v>97.99644857307294</v>
       </c>
       <c r="G43" t="n">
         <v>118.6111461006211</v>
       </c>
       <c r="H43" t="n">
-        <v>97.41876701936492</v>
+        <v>97.41876701936489</v>
       </c>
       <c r="I43" t="n">
-        <v>49.22666241562111</v>
+        <v>49.2266624156211</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95436997943992</v>
+        <v>41.9543699794399</v>
       </c>
       <c r="S43" t="n">
         <v>142.5176057698739</v>
       </c>
       <c r="T43" t="n">
-        <v>172.1668091625115</v>
+        <v>172.1668091625114</v>
       </c>
       <c r="U43" t="n">
         <v>238.7877807898337</v>
@@ -3961,7 +3961,7 @@
         <v>239.0983988867327</v>
       </c>
       <c r="X43" t="n">
-        <v>178.2850559391789</v>
+        <v>178.2850559391788</v>
       </c>
       <c r="Y43" t="n">
         <v>171.1600539022365</v>
@@ -3977,7 +3977,7 @@
         <v>335.3092422136223</v>
       </c>
       <c r="C44" t="n">
-        <v>317.8482923211493</v>
+        <v>317.8482923211492</v>
       </c>
       <c r="D44" t="n">
         <v>307.2584421708247</v>
@@ -3986,10 +3986,10 @@
         <v>334.5057706224035</v>
       </c>
       <c r="F44" t="n">
-        <v>359.4514462918532</v>
+        <v>359.4514462918531</v>
       </c>
       <c r="G44" t="n">
-        <v>363.5192796902475</v>
+        <v>363.5192796902474</v>
       </c>
       <c r="H44" t="n">
         <v>247.4100443326397</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.26798491540612</v>
+        <v>62.26798491540609</v>
       </c>
       <c r="T44" t="n">
         <v>156.5903475775822</v>
@@ -4034,13 +4034,13 @@
         <v>203.5723447879759</v>
       </c>
       <c r="V44" t="n">
-        <v>280.3276590202767</v>
+        <v>280.3276590202766</v>
       </c>
       <c r="W44" t="n">
-        <v>301.8163692675548</v>
+        <v>301.8163692675547</v>
       </c>
       <c r="X44" t="n">
-        <v>322.3065012286108</v>
+        <v>322.3065012286107</v>
       </c>
       <c r="Y44" t="n">
         <v>338.8133392061953</v>
@@ -4071,10 +4071,10 @@
         <v>135.0113223260428</v>
       </c>
       <c r="H45" t="n">
-        <v>89.71135199332306</v>
+        <v>89.71135199332308</v>
       </c>
       <c r="I45" t="n">
-        <v>9.099573764716098</v>
+        <v>9.099573764716126</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>132.407380732079</v>
       </c>
       <c r="C46" t="n">
-        <v>119.8222216487696</v>
+        <v>119.8222216487695</v>
       </c>
       <c r="D46" t="n">
-        <v>101.1908735683541</v>
+        <v>101.190873568354</v>
       </c>
       <c r="E46" t="n">
-        <v>99.00936319671089</v>
+        <v>99.00936319671085</v>
       </c>
       <c r="F46" t="n">
-        <v>97.99644857307297</v>
+        <v>97.99644857307293</v>
       </c>
       <c r="G46" t="n">
         <v>118.6111461006211</v>
       </c>
       <c r="H46" t="n">
-        <v>97.41876701936492</v>
+        <v>97.41876701936488</v>
       </c>
       <c r="I46" t="n">
-        <v>49.22666241562111</v>
+        <v>49.22666241562109</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95436997943992</v>
+        <v>41.9543699794399</v>
       </c>
       <c r="S46" t="n">
         <v>142.5176057698739</v>
       </c>
       <c r="T46" t="n">
-        <v>172.1668091625115</v>
+        <v>172.1668091625114</v>
       </c>
       <c r="U46" t="n">
         <v>238.7877807898337</v>
@@ -4198,7 +4198,7 @@
         <v>239.0983988867327</v>
       </c>
       <c r="X46" t="n">
-        <v>178.2850559391789</v>
+        <v>178.2850559391788</v>
       </c>
       <c r="Y46" t="n">
         <v>171.1600539022365</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1478.743749814005</v>
+        <v>1891.895939651551</v>
       </c>
       <c r="C11" t="n">
-        <v>1109.781232873593</v>
+        <v>1522.93342271114</v>
       </c>
       <c r="D11" t="n">
-        <v>1109.781232873593</v>
+        <v>1164.667724104389</v>
       </c>
       <c r="E11" t="n">
-        <v>723.9929802753484</v>
+        <v>778.8794715061449</v>
       </c>
       <c r="F11" t="n">
-        <v>723.9929802753484</v>
+        <v>778.8794715061449</v>
       </c>
       <c r="G11" t="n">
-        <v>308.8981528611007</v>
+        <v>363.7846440918967</v>
       </c>
       <c r="H11" t="n">
-        <v>108.8314706419871</v>
+        <v>65.9718725944239</v>
       </c>
       <c r="I11" t="n">
-        <v>65.97187259442396</v>
+        <v>65.9718725944239</v>
       </c>
       <c r="J11" t="n">
-        <v>252.9895565605748</v>
+        <v>252.9895565605739</v>
       </c>
       <c r="K11" t="n">
-        <v>584.0191037384548</v>
+        <v>584.0191037384541</v>
       </c>
       <c r="L11" t="n">
-        <v>1031.592290505435</v>
+        <v>1031.592290505434</v>
       </c>
       <c r="M11" t="n">
-        <v>1561.27313634836</v>
+        <v>1561.273136348359</v>
       </c>
       <c r="N11" t="n">
-        <v>2104.138580420133</v>
+        <v>2104.138580420131</v>
       </c>
       <c r="O11" t="n">
-        <v>2603.415764158029</v>
+        <v>2603.415764158027</v>
       </c>
       <c r="P11" t="n">
-        <v>2995.036288433477</v>
+        <v>2995.036288433475</v>
       </c>
       <c r="Q11" t="n">
-        <v>3240.954246130756</v>
+        <v>3240.954246130754</v>
       </c>
       <c r="R11" t="n">
-        <v>3298.593629721197</v>
+        <v>3298.593629721195</v>
       </c>
       <c r="S11" t="n">
-        <v>3187.793039453254</v>
+        <v>3298.593629721195</v>
       </c>
       <c r="T11" t="n">
-        <v>2981.717335385132</v>
+        <v>3298.593629721195</v>
       </c>
       <c r="U11" t="n">
-        <v>2981.717335385132</v>
+        <v>3045.061362814291</v>
       </c>
       <c r="V11" t="n">
-        <v>2981.717335385132</v>
+        <v>3045.061362814291</v>
       </c>
       <c r="W11" t="n">
-        <v>2628.948680115018</v>
+        <v>3042.100869952565</v>
       </c>
       <c r="X11" t="n">
-        <v>2255.482921853938</v>
+        <v>2668.635111691485</v>
       </c>
       <c r="Y11" t="n">
-        <v>1865.343589878126</v>
+        <v>2278.495779715673</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1674.956857074632</v>
+        <v>931.315413489193</v>
       </c>
       <c r="C12" t="n">
-        <v>1500.503827793505</v>
+        <v>756.862384208066</v>
       </c>
       <c r="D12" t="n">
-        <v>1351.569418132254</v>
+        <v>607.9279745468148</v>
       </c>
       <c r="E12" t="n">
-        <v>1192.331963126798</v>
+        <v>448.6905195413592</v>
       </c>
       <c r="F12" t="n">
-        <v>1045.797405153683</v>
+        <v>302.1559615682442</v>
       </c>
       <c r="G12" t="n">
-        <v>909.4223320970741</v>
+        <v>165.7808885116352</v>
       </c>
       <c r="H12" t="n">
-        <v>818.8048048310912</v>
+        <v>75.16336124565231</v>
       </c>
       <c r="I12" t="n">
-        <v>809.6133161798629</v>
+        <v>65.9718725944239</v>
       </c>
       <c r="J12" t="n">
-        <v>902.1819205937121</v>
+        <v>158.5404770082731</v>
       </c>
       <c r="K12" t="n">
-        <v>1138.551234372287</v>
+        <v>403.4560853099666</v>
       </c>
       <c r="L12" t="n">
-        <v>1502.701487687812</v>
+        <v>767.6063386254914</v>
       </c>
       <c r="M12" t="n">
-        <v>1947.004525621474</v>
+        <v>1211.909376559153</v>
       </c>
       <c r="N12" t="n">
-        <v>2417.475587820036</v>
+        <v>1682.380438757716</v>
       </c>
       <c r="O12" t="n">
-        <v>2825.644900550406</v>
+        <v>2090.549751488084</v>
       </c>
       <c r="P12" t="n">
-        <v>3142.449987138627</v>
+        <v>2398.808543553188</v>
       </c>
       <c r="Q12" t="n">
-        <v>3298.593629721197</v>
+        <v>2554.952186135758</v>
       </c>
       <c r="R12" t="n">
-        <v>3298.593629721197</v>
+        <v>2554.952186135758</v>
       </c>
       <c r="S12" t="n">
-        <v>3168.933352048553</v>
+        <v>2425.291908463114</v>
       </c>
       <c r="T12" t="n">
-        <v>2976.242092580796</v>
+        <v>2232.600648995357</v>
       </c>
       <c r="U12" t="n">
-        <v>2748.173458025131</v>
+        <v>2004.532014439692</v>
       </c>
       <c r="V12" t="n">
-        <v>2513.021349793388</v>
+        <v>1769.379906207949</v>
       </c>
       <c r="W12" t="n">
-        <v>2258.783993065187</v>
+        <v>1515.142549479748</v>
       </c>
       <c r="X12" t="n">
-        <v>2050.932492859654</v>
+        <v>1307.291049274215</v>
       </c>
       <c r="Y12" t="n">
-        <v>1843.1721940947</v>
+        <v>1099.530750509261</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>652.187309139005</v>
+        <v>616.7514584560353</v>
       </c>
       <c r="C13" t="n">
-        <v>531.7144798825665</v>
+        <v>460.0224800216107</v>
       </c>
       <c r="D13" t="n">
-        <v>381.5978404702307</v>
+        <v>309.9058406092751</v>
       </c>
       <c r="E13" t="n">
-        <v>233.6847468878375</v>
+        <v>309.9058406092751</v>
       </c>
       <c r="F13" t="n">
-        <v>233.6847468878375</v>
+        <v>309.9058406092751</v>
       </c>
       <c r="G13" t="n">
-        <v>65.97187259442396</v>
+        <v>309.9058406092751</v>
       </c>
       <c r="H13" t="n">
-        <v>65.97187259442396</v>
+        <v>163.5994098322819</v>
       </c>
       <c r="I13" t="n">
-        <v>65.97187259442396</v>
+        <v>65.9718725944239</v>
       </c>
       <c r="J13" t="n">
         <v>110.3989642008162</v>
       </c>
       <c r="K13" t="n">
-        <v>313.2431598869765</v>
+        <v>313.2431598869764</v>
       </c>
       <c r="L13" t="n">
-        <v>628.3403281559376</v>
+        <v>628.340328155937</v>
       </c>
       <c r="M13" t="n">
-        <v>970.9552353070505</v>
+        <v>970.9552353070497</v>
       </c>
       <c r="N13" t="n">
-        <v>1310.858142169934</v>
+        <v>1310.858142169933</v>
       </c>
       <c r="O13" t="n">
-        <v>1608.797196022999</v>
+        <v>1608.797196022998</v>
       </c>
       <c r="P13" t="n">
-        <v>1840.214844927459</v>
+        <v>1840.214844927458</v>
       </c>
       <c r="Q13" t="n">
-        <v>1917.001349555961</v>
+        <v>1917.00134955596</v>
       </c>
       <c r="R13" t="n">
-        <v>1826.71956225364</v>
+        <v>1826.719562253639</v>
       </c>
       <c r="S13" t="n">
-        <v>1826.71956225364</v>
+        <v>1826.719562253639</v>
       </c>
       <c r="T13" t="n">
-        <v>1826.71956225364</v>
+        <v>1604.91005860478</v>
       </c>
       <c r="U13" t="n">
-        <v>1826.71956225364</v>
+        <v>1315.806644221253</v>
       </c>
       <c r="V13" t="n">
-        <v>1572.035074047753</v>
+        <v>1315.806644221253</v>
       </c>
       <c r="W13" t="n">
-        <v>1282.617904010792</v>
+        <v>1026.389474184292</v>
       </c>
       <c r="X13" t="n">
-        <v>1054.628353112775</v>
+        <v>798.399923286275</v>
       </c>
       <c r="Y13" t="n">
-        <v>833.8357739692448</v>
+        <v>798.399923286275</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2357.926227499133</v>
+        <v>1876.853604345202</v>
       </c>
       <c r="C14" t="n">
-        <v>1988.963710558722</v>
+        <v>1603.175457960478</v>
       </c>
       <c r="D14" t="n">
-        <v>1630.698011951971</v>
+        <v>1244.909759353728</v>
       </c>
       <c r="E14" t="n">
-        <v>1244.909759353727</v>
+        <v>1244.909759353728</v>
       </c>
       <c r="F14" t="n">
-        <v>833.9238545641194</v>
+        <v>833.92385456412</v>
       </c>
       <c r="G14" t="n">
-        <v>418.8290271498716</v>
+        <v>418.8290271498718</v>
       </c>
       <c r="H14" t="n">
         <v>121.016255652399</v>
       </c>
       <c r="I14" t="n">
-        <v>78.15665760483584</v>
+        <v>78.15665760483579</v>
       </c>
       <c r="J14" t="n">
-        <v>265.1743415709859</v>
+        <v>265.1743415709857</v>
       </c>
       <c r="K14" t="n">
-        <v>596.2038887488663</v>
+        <v>917.1078471943191</v>
       </c>
       <c r="L14" t="n">
-        <v>1043.777075515846</v>
+        <v>1640.831541026027</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.457921358772</v>
+        <v>2170.512386868952</v>
       </c>
       <c r="N14" t="n">
-        <v>2394.797109850959</v>
+        <v>2713.377830940724</v>
       </c>
       <c r="O14" t="n">
-        <v>2894.074293588856</v>
+        <v>3212.655014678621</v>
       </c>
       <c r="P14" t="n">
-        <v>3604.275538954072</v>
+        <v>3604.275538954069</v>
       </c>
       <c r="Q14" t="n">
-        <v>3850.193496651351</v>
+        <v>3850.193496651348</v>
       </c>
       <c r="R14" t="n">
-        <v>3907.832880241792</v>
+        <v>3907.832880241789</v>
       </c>
       <c r="S14" t="n">
-        <v>3797.032289973848</v>
+        <v>3797.032289973845</v>
       </c>
       <c r="T14" t="n">
-        <v>3590.956585905727</v>
+        <v>3590.956585905723</v>
       </c>
       <c r="U14" t="n">
-        <v>3590.956585905727</v>
+        <v>3337.42431899882</v>
       </c>
       <c r="V14" t="n">
-        <v>3259.893698562156</v>
+        <v>3006.361431655249</v>
       </c>
       <c r="W14" t="n">
-        <v>3117.991825824335</v>
+        <v>2653.592776385135</v>
       </c>
       <c r="X14" t="n">
-        <v>2744.526067563255</v>
+        <v>2653.592776385135</v>
       </c>
       <c r="Y14" t="n">
-        <v>2744.526067563255</v>
+        <v>2263.453444409323</v>
       </c>
     </row>
     <row r="15">
@@ -5340,40 +5340,40 @@
         <v>620.1127595572266</v>
       </c>
       <c r="E15" t="n">
-        <v>460.8753045517711</v>
+        <v>460.875304551771</v>
       </c>
       <c r="F15" t="n">
-        <v>314.3407465786561</v>
+        <v>314.340746578656</v>
       </c>
       <c r="G15" t="n">
         <v>177.9656735220471</v>
       </c>
       <c r="H15" t="n">
-        <v>87.34814625606423</v>
+        <v>87.3481462560642</v>
       </c>
       <c r="I15" t="n">
-        <v>78.15665760483584</v>
+        <v>78.15665760483579</v>
       </c>
       <c r="J15" t="n">
-        <v>170.7252620186851</v>
+        <v>170.725262018685</v>
       </c>
       <c r="K15" t="n">
-        <v>407.0945757972602</v>
+        <v>407.0945757972601</v>
       </c>
       <c r="L15" t="n">
-        <v>771.2448291127851</v>
+        <v>771.2448291127848</v>
       </c>
       <c r="M15" t="n">
         <v>1215.547867046447</v>
       </c>
       <c r="N15" t="n">
-        <v>1686.01892924501</v>
+        <v>1686.018929245009</v>
       </c>
       <c r="O15" t="n">
-        <v>2094.188241975379</v>
+        <v>2094.188241975378</v>
       </c>
       <c r="P15" t="n">
-        <v>2410.9933285636</v>
+        <v>2402.447034040481</v>
       </c>
       <c r="Q15" t="n">
         <v>2567.13697114617</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>807.2362931443174</v>
+        <v>322.0906256196869</v>
       </c>
       <c r="C16" t="n">
-        <v>638.3001102164105</v>
+        <v>322.0906256196869</v>
       </c>
       <c r="D16" t="n">
-        <v>638.3001102164105</v>
+        <v>322.0906256196869</v>
       </c>
       <c r="E16" t="n">
-        <v>490.3870166340174</v>
+        <v>322.0906256196869</v>
       </c>
       <c r="F16" t="n">
-        <v>343.497069136107</v>
+        <v>322.0906256196869</v>
       </c>
       <c r="G16" t="n">
-        <v>175.7841948426938</v>
+        <v>322.0906256196869</v>
       </c>
       <c r="H16" t="n">
         <v>175.7841948426938</v>
       </c>
       <c r="I16" t="n">
-        <v>78.15665760483584</v>
+        <v>78.15665760483579</v>
       </c>
       <c r="J16" t="n">
-        <v>122.5837492112282</v>
+        <v>122.5837492112281</v>
       </c>
       <c r="K16" t="n">
-        <v>325.4279448973884</v>
+        <v>325.4279448973883</v>
       </c>
       <c r="L16" t="n">
-        <v>640.5251131663495</v>
+        <v>640.5251131663493</v>
       </c>
       <c r="M16" t="n">
-        <v>983.1400203174621</v>
+        <v>983.140020317462</v>
       </c>
       <c r="N16" t="n">
-        <v>1323.042927180346</v>
+        <v>1323.042927180345</v>
       </c>
       <c r="O16" t="n">
         <v>1620.981981033411</v>
@@ -5455,31 +5455,31 @@
         <v>1852.39962993787</v>
       </c>
       <c r="Q16" t="n">
-        <v>1929.186134566373</v>
+        <v>1929.186134566372</v>
       </c>
       <c r="R16" t="n">
-        <v>1929.186134566373</v>
+        <v>1838.904347264051</v>
       </c>
       <c r="S16" t="n">
-        <v>1929.186134566373</v>
+        <v>1647.043533910786</v>
       </c>
       <c r="T16" t="n">
-        <v>1929.186134566373</v>
+        <v>1425.234030261928</v>
       </c>
       <c r="U16" t="n">
-        <v>1929.186134566373</v>
+        <v>1268.633327836304</v>
       </c>
       <c r="V16" t="n">
-        <v>1674.501646360486</v>
+        <v>1013.948839630418</v>
       </c>
       <c r="W16" t="n">
-        <v>1385.084476323525</v>
+        <v>724.5316695934567</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.677337118087</v>
+        <v>724.5316695934567</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.8847579745571</v>
+        <v>503.7390904499266</v>
       </c>
     </row>
     <row r="17">
@@ -5492,67 +5492,67 @@
         <v>2030.522934645911</v>
       </c>
       <c r="C17" t="n">
-        <v>1709.464053513437</v>
+        <v>1709.464053513436</v>
       </c>
       <c r="D17" t="n">
-        <v>1399.101990714625</v>
+        <v>1399.101990714623</v>
       </c>
       <c r="E17" t="n">
-        <v>1061.217373924318</v>
+        <v>1061.217373924317</v>
       </c>
       <c r="F17" t="n">
-        <v>698.1351049426482</v>
+        <v>698.1351049426469</v>
       </c>
       <c r="G17" t="n">
-        <v>330.9439133363366</v>
+        <v>330.9439133363365</v>
       </c>
       <c r="H17" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="I17" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J17" t="n">
-        <v>268.0524616129516</v>
+        <v>412.3029916621282</v>
       </c>
       <c r="K17" t="n">
-        <v>749.9803361539107</v>
+        <v>743.3325388400085</v>
       </c>
       <c r="L17" t="n">
-        <v>1197.55352292089</v>
+        <v>1190.905725606988</v>
       </c>
       <c r="M17" t="n">
-        <v>1727.234368763816</v>
+        <v>1720.586571449913</v>
       </c>
       <c r="N17" t="n">
-        <v>2270.099812835588</v>
+        <v>2263.452015521686</v>
       </c>
       <c r="O17" t="n">
-        <v>3146.369176023602</v>
+        <v>2762.729199259582</v>
       </c>
       <c r="P17" t="n">
-        <v>3537.989700299051</v>
+        <v>3472.930444624798</v>
       </c>
       <c r="Q17" t="n">
-        <v>3994.099498749636</v>
+        <v>3929.040243075383</v>
       </c>
       <c r="R17" t="n">
         <v>4051.738882340077</v>
       </c>
       <c r="S17" t="n">
-        <v>3988.841927880071</v>
+        <v>3988.84192788007</v>
       </c>
       <c r="T17" t="n">
-        <v>3830.669859619887</v>
+        <v>3830.669859619886</v>
       </c>
       <c r="U17" t="n">
-        <v>3625.041228520921</v>
+        <v>3625.04122852092</v>
       </c>
       <c r="V17" t="n">
         <v>3341.881976985288</v>
       </c>
       <c r="W17" t="n">
-        <v>3037.016957523112</v>
+        <v>3037.016957523111</v>
       </c>
       <c r="X17" t="n">
         <v>2711.454835069969</v>
@@ -5580,37 +5580,37 @@
         <v>463.7534245937368</v>
       </c>
       <c r="F18" t="n">
-        <v>317.2188666206217</v>
+        <v>317.2188666206218</v>
       </c>
       <c r="G18" t="n">
-        <v>180.8437935640128</v>
+        <v>180.8437935640129</v>
       </c>
       <c r="H18" t="n">
-        <v>90.22626629802993</v>
+        <v>90.22626629802994</v>
       </c>
       <c r="I18" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J18" t="n">
-        <v>173.6033820606508</v>
+        <v>173.6033820606507</v>
       </c>
       <c r="K18" t="n">
-        <v>409.9726958392259</v>
+        <v>409.9726958392258</v>
       </c>
       <c r="L18" t="n">
-        <v>774.1229491547508</v>
+        <v>774.1229491547506</v>
       </c>
       <c r="M18" t="n">
-        <v>1226.97228161153</v>
+        <v>1218.425987088413</v>
       </c>
       <c r="N18" t="n">
-        <v>1697.443343810093</v>
+        <v>1688.897049286975</v>
       </c>
       <c r="O18" t="n">
-        <v>2105.612656540462</v>
+        <v>2097.066362017344</v>
       </c>
       <c r="P18" t="n">
-        <v>2413.871448605566</v>
+        <v>2405.325154082448</v>
       </c>
       <c r="Q18" t="n">
         <v>2570.015091188136</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>771.2120327200488</v>
+        <v>771.212032720048</v>
       </c>
       <c r="C19" t="n">
-        <v>650.1794856000796</v>
+        <v>650.1794856000788</v>
       </c>
       <c r="D19" t="n">
-        <v>547.9664819956815</v>
+        <v>547.9664819956807</v>
       </c>
       <c r="E19" t="n">
-        <v>447.9570242212261</v>
+        <v>447.9570242212254</v>
       </c>
       <c r="F19" t="n">
-        <v>348.9707125312535</v>
+        <v>348.9707125312527</v>
       </c>
       <c r="G19" t="n">
-        <v>229.1614740457776</v>
+        <v>229.1614740457769</v>
       </c>
       <c r="H19" t="n">
-        <v>130.7586790767218</v>
+        <v>130.7586790767216</v>
       </c>
       <c r="I19" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J19" t="n">
         <v>172.4122227085536</v>
@@ -5677,16 +5677,16 @@
         <v>422.2067718500736</v>
       </c>
       <c r="L19" t="n">
-        <v>784.2542935743941</v>
+        <v>784.2542935743938</v>
       </c>
       <c r="M19" t="n">
-        <v>1173.819554180867</v>
+        <v>1173.819554180866</v>
       </c>
       <c r="N19" t="n">
         <v>1560.67281449911</v>
       </c>
       <c r="O19" t="n">
-        <v>1905.562221807535</v>
+        <v>1905.562221807534</v>
       </c>
       <c r="P19" t="n">
         <v>2183.930224167354</v>
@@ -5701,22 +5701,22 @@
         <v>2121.331753211505</v>
       </c>
       <c r="T19" t="n">
-        <v>1947.425885370585</v>
+        <v>1947.425885370584</v>
       </c>
       <c r="U19" t="n">
-        <v>1706.226106794995</v>
+        <v>1706.226106794994</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.445254397046</v>
+        <v>1499.445254397045</v>
       </c>
       <c r="W19" t="n">
-        <v>1257.931720168023</v>
+        <v>1257.931720168022</v>
       </c>
       <c r="X19" t="n">
-        <v>1077.845805077943</v>
+        <v>1077.845805077942</v>
       </c>
       <c r="Y19" t="n">
-        <v>904.9568617423508</v>
+        <v>904.9568617423499</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2030.522934645912</v>
+        <v>2030.522934645911</v>
       </c>
       <c r="C20" t="n">
-        <v>1709.464053513438</v>
+        <v>1709.464053513437</v>
       </c>
       <c r="D20" t="n">
         <v>1399.101990714625</v>
@@ -5738,46 +5738,46 @@
         <v>1061.217373924318</v>
       </c>
       <c r="F20" t="n">
-        <v>698.1351049426478</v>
+        <v>698.1351049426482</v>
       </c>
       <c r="G20" t="n">
         <v>330.9439133363366</v>
       </c>
       <c r="H20" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="I20" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J20" t="n">
-        <v>268.0524616129516</v>
+        <v>435.4581106333045</v>
       </c>
       <c r="K20" t="n">
-        <v>919.9859672362851</v>
+        <v>766.4876578111848</v>
       </c>
       <c r="L20" t="n">
-        <v>1367.559154003265</v>
+        <v>1214.060844578164</v>
       </c>
       <c r="M20" t="n">
-        <v>1897.23999984619</v>
+        <v>1743.74169042109</v>
       </c>
       <c r="N20" t="n">
-        <v>2440.105443917962</v>
+        <v>2286.607134492862</v>
       </c>
       <c r="O20" t="n">
-        <v>2939.382627655859</v>
+        <v>2785.884318230758</v>
       </c>
       <c r="P20" t="n">
-        <v>3537.989700299051</v>
+        <v>3472.930444624798</v>
       </c>
       <c r="Q20" t="n">
-        <v>3994.099498749636</v>
+        <v>3929.040243075383</v>
       </c>
       <c r="R20" t="n">
         <v>4051.738882340077</v>
       </c>
       <c r="S20" t="n">
-        <v>3988.841927880071</v>
+        <v>3988.84192788007</v>
       </c>
       <c r="T20" t="n">
         <v>3830.669859619887</v>
@@ -5795,7 +5795,7 @@
         <v>2711.45483506997</v>
       </c>
       <c r="Y20" t="n">
-        <v>2369.219138902096</v>
+        <v>2369.219138902095</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>463.7534245937368</v>
       </c>
       <c r="F21" t="n">
-        <v>317.2188666206217</v>
+        <v>317.2188666206218</v>
       </c>
       <c r="G21" t="n">
-        <v>180.8437935640128</v>
+        <v>180.8437935640129</v>
       </c>
       <c r="H21" t="n">
-        <v>90.22626629802993</v>
+        <v>90.22626629802994</v>
       </c>
       <c r="I21" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J21" t="n">
-        <v>173.6033820606508</v>
+        <v>173.6033820606507</v>
       </c>
       <c r="K21" t="n">
-        <v>418.5189903623431</v>
+        <v>409.9726958392258</v>
       </c>
       <c r="L21" t="n">
-        <v>782.6692436778679</v>
+        <v>774.1229491547506</v>
       </c>
       <c r="M21" t="n">
-        <v>1226.97228161153</v>
+        <v>1218.425987088413</v>
       </c>
       <c r="N21" t="n">
-        <v>1697.443343810093</v>
+        <v>1688.897049286975</v>
       </c>
       <c r="O21" t="n">
-        <v>2105.612656540462</v>
+        <v>2097.066362017344</v>
       </c>
       <c r="P21" t="n">
-        <v>2413.871448605566</v>
+        <v>2405.325154082448</v>
       </c>
       <c r="Q21" t="n">
         <v>2570.015091188136</v>
@@ -5905,16 +5905,16 @@
         <v>130.7586790767218</v>
       </c>
       <c r="I22" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J22" t="n">
         <v>172.4122227085535</v>
       </c>
       <c r="K22" t="n">
-        <v>422.2067718500736</v>
+        <v>422.2067718500734</v>
       </c>
       <c r="L22" t="n">
-        <v>784.2542935743943</v>
+        <v>784.2542935743941</v>
       </c>
       <c r="M22" t="n">
         <v>1173.819554180867</v>
@@ -5981,43 +5981,43 @@
         <v>330.9439133363366</v>
       </c>
       <c r="H23" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="I23" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J23" t="n">
-        <v>268.0524616129516</v>
+        <v>435.4581106333045</v>
       </c>
       <c r="K23" t="n">
-        <v>599.082008790832</v>
+        <v>827.0867025251782</v>
       </c>
       <c r="L23" t="n">
-        <v>1460.139797962758</v>
+        <v>1274.659889292158</v>
       </c>
       <c r="M23" t="n">
-        <v>2314.418388967239</v>
+        <v>2249.359133292987</v>
       </c>
       <c r="N23" t="n">
-        <v>2857.283833039012</v>
+        <v>2792.224577364759</v>
       </c>
       <c r="O23" t="n">
-        <v>3356.561016776908</v>
+        <v>3291.501761102656</v>
       </c>
       <c r="P23" t="n">
-        <v>3748.181541052356</v>
+        <v>3683.122285378104</v>
       </c>
       <c r="Q23" t="n">
-        <v>3994.099498749636</v>
+        <v>3929.040243075383</v>
       </c>
       <c r="R23" t="n">
         <v>4051.738882340077</v>
       </c>
       <c r="S23" t="n">
-        <v>3988.841927880071</v>
+        <v>3988.84192788007</v>
       </c>
       <c r="T23" t="n">
-        <v>3830.669859619887</v>
+        <v>3830.669859619886</v>
       </c>
       <c r="U23" t="n">
         <v>3625.041228520921</v>
@@ -6054,34 +6054,34 @@
         <v>463.7534245937368</v>
       </c>
       <c r="F24" t="n">
-        <v>317.2188666206217</v>
+        <v>317.2188666206218</v>
       </c>
       <c r="G24" t="n">
-        <v>180.8437935640128</v>
+        <v>180.8437935640129</v>
       </c>
       <c r="H24" t="n">
-        <v>90.22626629802993</v>
+        <v>90.22626629802994</v>
       </c>
       <c r="I24" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J24" t="n">
-        <v>173.6033820606508</v>
+        <v>173.6033820606507</v>
       </c>
       <c r="K24" t="n">
-        <v>409.9726958392259</v>
+        <v>409.9726958392258</v>
       </c>
       <c r="L24" t="n">
-        <v>774.1229491547508</v>
+        <v>774.1229491547506</v>
       </c>
       <c r="M24" t="n">
         <v>1218.425987088413</v>
       </c>
       <c r="N24" t="n">
-        <v>1688.897049286976</v>
+        <v>1688.897049286975</v>
       </c>
       <c r="O24" t="n">
-        <v>2097.066362017345</v>
+        <v>2105.612656540462</v>
       </c>
       <c r="P24" t="n">
         <v>2413.871448605566</v>
@@ -6142,16 +6142,16 @@
         <v>130.7586790767218</v>
       </c>
       <c r="I25" t="n">
-        <v>81.03477764680154</v>
+        <v>81.03477764680153</v>
       </c>
       <c r="J25" t="n">
         <v>172.4122227085535</v>
       </c>
       <c r="K25" t="n">
-        <v>422.2067718500736</v>
+        <v>422.2067718500734</v>
       </c>
       <c r="L25" t="n">
-        <v>784.2542935743943</v>
+        <v>784.2542935743941</v>
       </c>
       <c r="M25" t="n">
         <v>1173.819554180867</v>
@@ -6224,22 +6224,22 @@
         <v>81.03477764680153</v>
       </c>
       <c r="J26" t="n">
-        <v>268.0524616129516</v>
+        <v>268.0524616129514</v>
       </c>
       <c r="K26" t="n">
-        <v>599.082008790832</v>
+        <v>919.9859672362849</v>
       </c>
       <c r="L26" t="n">
-        <v>1046.655195557812</v>
+        <v>1509.486446696755</v>
       </c>
       <c r="M26" t="n">
-        <v>2021.354439558641</v>
+        <v>2039.167292539681</v>
       </c>
       <c r="N26" t="n">
-        <v>2564.219883630414</v>
+        <v>2582.032736611453</v>
       </c>
       <c r="O26" t="n">
-        <v>3063.49706736831</v>
+        <v>3081.309920349349</v>
       </c>
       <c r="P26" t="n">
         <v>3472.930444624797</v>
@@ -6291,28 +6291,28 @@
         <v>463.7534245937368</v>
       </c>
       <c r="F27" t="n">
-        <v>317.2188666206217</v>
+        <v>317.2188666206218</v>
       </c>
       <c r="G27" t="n">
-        <v>180.8437935640128</v>
+        <v>180.8437935640129</v>
       </c>
       <c r="H27" t="n">
-        <v>90.22626629802991</v>
+        <v>90.22626629802994</v>
       </c>
       <c r="I27" t="n">
         <v>81.03477764680153</v>
       </c>
       <c r="J27" t="n">
-        <v>173.6033820606508</v>
+        <v>182.1496765837691</v>
       </c>
       <c r="K27" t="n">
-        <v>409.9726958392259</v>
+        <v>418.5189903623442</v>
       </c>
       <c r="L27" t="n">
-        <v>774.1229491547508</v>
+        <v>782.669243677869</v>
       </c>
       <c r="M27" t="n">
-        <v>1226.97228161153</v>
+        <v>1226.972281611531</v>
       </c>
       <c r="N27" t="n">
         <v>1697.443343810093</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>771.2120327200486</v>
+        <v>771.2120327200487</v>
       </c>
       <c r="C28" t="n">
-        <v>650.1794856000794</v>
+        <v>650.1794856000795</v>
       </c>
       <c r="D28" t="n">
-        <v>547.9664819956813</v>
+        <v>547.9664819956814</v>
       </c>
       <c r="E28" t="n">
         <v>447.9570242212259</v>
@@ -6373,7 +6373,7 @@
         <v>348.9707125312532</v>
       </c>
       <c r="G28" t="n">
-        <v>229.1614740457773</v>
+        <v>229.1614740457774</v>
       </c>
       <c r="H28" t="n">
         <v>130.7586790767218</v>
@@ -6382,13 +6382,13 @@
         <v>81.03477764680153</v>
       </c>
       <c r="J28" t="n">
-        <v>172.4122227085536</v>
+        <v>172.4122227085535</v>
       </c>
       <c r="K28" t="n">
-        <v>422.2067718500736</v>
+        <v>422.2067718500734</v>
       </c>
       <c r="L28" t="n">
-        <v>784.2542935743943</v>
+        <v>784.2542935743941</v>
       </c>
       <c r="M28" t="n">
         <v>1173.819554180867</v>
@@ -6412,7 +6412,7 @@
         <v>2121.331753211505</v>
       </c>
       <c r="T28" t="n">
-        <v>1947.425885370585</v>
+        <v>1947.425885370584</v>
       </c>
       <c r="U28" t="n">
         <v>1706.226106794995</v>
@@ -6427,7 +6427,7 @@
         <v>1077.845805077943</v>
       </c>
       <c r="Y28" t="n">
-        <v>904.9568617423506</v>
+        <v>904.9568617423507</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2030.52293464591</v>
+        <v>2030.522934645911</v>
       </c>
       <c r="C29" t="n">
         <v>1709.464053513437</v>
@@ -6449,49 +6449,49 @@
         <v>1061.217373924317</v>
       </c>
       <c r="F29" t="n">
-        <v>698.1351049426476</v>
+        <v>698.1351049426471</v>
       </c>
       <c r="G29" t="n">
         <v>330.9439133363366</v>
       </c>
       <c r="H29" t="n">
-        <v>81.03477764680153</v>
+        <v>81.03477764680152</v>
       </c>
       <c r="I29" t="n">
-        <v>81.03477764680153</v>
+        <v>81.03477764680152</v>
       </c>
       <c r="J29" t="n">
-        <v>268.0524616129516</v>
+        <v>435.4581106333044</v>
       </c>
       <c r="K29" t="n">
-        <v>599.082008790832</v>
+        <v>766.4876578111848</v>
       </c>
       <c r="L29" t="n">
-        <v>1046.655195557812</v>
+        <v>1214.060844578164</v>
       </c>
       <c r="M29" t="n">
-        <v>1576.336041400737</v>
+        <v>1743.74169042109</v>
       </c>
       <c r="N29" t="n">
-        <v>2552.174940640374</v>
+        <v>2286.607134492862</v>
       </c>
       <c r="O29" t="n">
-        <v>3051.45212437827</v>
+        <v>2785.884318230758</v>
       </c>
       <c r="P29" t="n">
-        <v>3748.181541052355</v>
+        <v>3472.930444624797</v>
       </c>
       <c r="Q29" t="n">
-        <v>3994.099498749635</v>
+        <v>3929.040243075382</v>
       </c>
       <c r="R29" t="n">
         <v>4051.738882340076</v>
       </c>
       <c r="S29" t="n">
-        <v>3988.84192788007</v>
+        <v>3988.841927880069</v>
       </c>
       <c r="T29" t="n">
-        <v>3830.669859619886</v>
+        <v>3830.669859619885</v>
       </c>
       <c r="U29" t="n">
         <v>3625.04122852092</v>
@@ -6528,37 +6528,37 @@
         <v>463.7534245937368</v>
       </c>
       <c r="F30" t="n">
-        <v>317.2188666206217</v>
+        <v>317.2188666206218</v>
       </c>
       <c r="G30" t="n">
-        <v>180.8437935640128</v>
+        <v>180.8437935640129</v>
       </c>
       <c r="H30" t="n">
-        <v>90.22626629802991</v>
+        <v>90.22626629802993</v>
       </c>
       <c r="I30" t="n">
-        <v>81.03477764680153</v>
+        <v>81.03477764680152</v>
       </c>
       <c r="J30" t="n">
-        <v>182.1496765837679</v>
+        <v>173.6033820606507</v>
       </c>
       <c r="K30" t="n">
-        <v>418.5189903623431</v>
+        <v>409.9726958392258</v>
       </c>
       <c r="L30" t="n">
-        <v>782.6692436778679</v>
+        <v>774.1229491547506</v>
       </c>
       <c r="M30" t="n">
-        <v>1226.97228161153</v>
+        <v>1218.425987088413</v>
       </c>
       <c r="N30" t="n">
-        <v>1697.443343810093</v>
+        <v>1688.897049286975</v>
       </c>
       <c r="O30" t="n">
-        <v>2105.612656540462</v>
+        <v>2097.066362017344</v>
       </c>
       <c r="P30" t="n">
-        <v>2413.871448605566</v>
+        <v>2405.325154082448</v>
       </c>
       <c r="Q30" t="n">
         <v>2570.015091188136</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>771.2120327200482</v>
+        <v>771.2120327200491</v>
       </c>
       <c r="C31" t="n">
-        <v>650.179485600079</v>
+        <v>650.1794856000799</v>
       </c>
       <c r="D31" t="n">
-        <v>547.966481995681</v>
+        <v>547.9664819956819</v>
       </c>
       <c r="E31" t="n">
-        <v>447.9570242212255</v>
+        <v>447.9570242212264</v>
       </c>
       <c r="F31" t="n">
-        <v>348.9707125312528</v>
+        <v>348.9707125312536</v>
       </c>
       <c r="G31" t="n">
-        <v>229.1614740457769</v>
+        <v>229.1614740457773</v>
       </c>
       <c r="H31" t="n">
         <v>130.7586790767218</v>
       </c>
       <c r="I31" t="n">
-        <v>81.03477764680153</v>
+        <v>81.03477764680152</v>
       </c>
       <c r="J31" t="n">
-        <v>172.4122227085535</v>
+        <v>172.4122227085534</v>
       </c>
       <c r="K31" t="n">
-        <v>422.2067718500735</v>
+        <v>422.2067718500734</v>
       </c>
       <c r="L31" t="n">
-        <v>784.2542935743944</v>
+        <v>784.2542935743938</v>
       </c>
       <c r="M31" t="n">
-        <v>1173.819554180867</v>
+        <v>1173.819554180866</v>
       </c>
       <c r="N31" t="n">
-        <v>1560.67281449911</v>
+        <v>1560.672814499109</v>
       </c>
       <c r="O31" t="n">
         <v>1905.562221807535</v>
@@ -6649,16 +6649,16 @@
         <v>2121.331753211505</v>
       </c>
       <c r="T31" t="n">
-        <v>1947.425885370585</v>
+        <v>1947.425885370584</v>
       </c>
       <c r="U31" t="n">
         <v>1706.226106794995</v>
       </c>
       <c r="V31" t="n">
-        <v>1499.445254397046</v>
+        <v>1499.445254397045</v>
       </c>
       <c r="W31" t="n">
-        <v>1257.931720168023</v>
+        <v>1257.931720168022</v>
       </c>
       <c r="X31" t="n">
         <v>1077.845805077943</v>
@@ -6692,34 +6692,34 @@
         <v>330.9439133363366</v>
       </c>
       <c r="H32" t="n">
-        <v>81.03477764680153</v>
+        <v>81.03477764680152</v>
       </c>
       <c r="I32" t="n">
-        <v>81.03477764680153</v>
+        <v>81.03477764680152</v>
       </c>
       <c r="J32" t="n">
-        <v>268.0524616129516</v>
+        <v>435.4581106333044</v>
       </c>
       <c r="K32" t="n">
-        <v>599.082008790832</v>
+        <v>766.4876578111848</v>
       </c>
       <c r="L32" t="n">
-        <v>1460.139797962758</v>
+        <v>1214.060844578164</v>
       </c>
       <c r="M32" t="n">
-        <v>2314.418388967239</v>
+        <v>1743.74169042109</v>
       </c>
       <c r="N32" t="n">
-        <v>2857.283833039011</v>
+        <v>2286.607134492862</v>
       </c>
       <c r="O32" t="n">
-        <v>3356.561016776907</v>
+        <v>2785.884318230758</v>
       </c>
       <c r="P32" t="n">
-        <v>3748.181541052355</v>
+        <v>3472.930444624797</v>
       </c>
       <c r="Q32" t="n">
-        <v>3994.099498749635</v>
+        <v>3929.040243075382</v>
       </c>
       <c r="R32" t="n">
         <v>4051.738882340076</v>
@@ -6765,34 +6765,34 @@
         <v>463.7534245937368</v>
       </c>
       <c r="F33" t="n">
-        <v>317.2188666206217</v>
+        <v>317.2188666206218</v>
       </c>
       <c r="G33" t="n">
-        <v>180.8437935640128</v>
+        <v>180.8437935640129</v>
       </c>
       <c r="H33" t="n">
-        <v>90.22626629802991</v>
+        <v>90.22626629802993</v>
       </c>
       <c r="I33" t="n">
-        <v>81.03477764680153</v>
+        <v>81.03477764680152</v>
       </c>
       <c r="J33" t="n">
-        <v>173.6033820606508</v>
+        <v>173.6033820606507</v>
       </c>
       <c r="K33" t="n">
-        <v>409.9726958392259</v>
+        <v>418.5189903623442</v>
       </c>
       <c r="L33" t="n">
-        <v>774.1229491547508</v>
+        <v>782.669243677869</v>
       </c>
       <c r="M33" t="n">
-        <v>1218.425987088413</v>
+        <v>1226.972281611531</v>
       </c>
       <c r="N33" t="n">
-        <v>1688.897049286976</v>
+        <v>1697.443343810093</v>
       </c>
       <c r="O33" t="n">
-        <v>2097.066362017345</v>
+        <v>2105.612656540462</v>
       </c>
       <c r="P33" t="n">
         <v>2413.871448605566</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>771.2120327200482</v>
+        <v>771.2120327200483</v>
       </c>
       <c r="C34" t="n">
-        <v>650.179485600079</v>
+        <v>650.1794856000791</v>
       </c>
       <c r="D34" t="n">
-        <v>547.966481995681</v>
+        <v>547.9664819956811</v>
       </c>
       <c r="E34" t="n">
-        <v>447.9570242212255</v>
+        <v>447.9570242212257</v>
       </c>
       <c r="F34" t="n">
-        <v>348.9707125312528</v>
+        <v>348.970712531253</v>
       </c>
       <c r="G34" t="n">
-        <v>229.1614740457769</v>
+        <v>229.1614740457771</v>
       </c>
       <c r="H34" t="n">
         <v>130.7586790767218</v>
       </c>
       <c r="I34" t="n">
-        <v>81.03477764680153</v>
+        <v>81.03477764680152</v>
       </c>
       <c r="J34" t="n">
         <v>172.4122227085534</v>
       </c>
       <c r="K34" t="n">
-        <v>422.2067718500729</v>
+        <v>422.2067718500733</v>
       </c>
       <c r="L34" t="n">
-        <v>784.2542935743936</v>
+        <v>784.2542935743941</v>
       </c>
       <c r="M34" t="n">
         <v>1173.819554180867</v>
@@ -6889,7 +6889,7 @@
         <v>1947.425885370584</v>
       </c>
       <c r="U34" t="n">
-        <v>1706.226106794995</v>
+        <v>1706.226106794994</v>
       </c>
       <c r="V34" t="n">
         <v>1499.445254397045</v>
@@ -6901,7 +6901,7 @@
         <v>1077.845805077943</v>
       </c>
       <c r="Y34" t="n">
-        <v>904.9568617423503</v>
+        <v>904.9568617423504</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2030.52293464591</v>
       </c>
       <c r="C35" t="n">
-        <v>1709.464053513436</v>
+        <v>1709.464053513437</v>
       </c>
       <c r="D35" t="n">
         <v>1399.101990714624</v>
@@ -6923,43 +6923,43 @@
         <v>1061.217373924317</v>
       </c>
       <c r="F35" t="n">
-        <v>698.1351049426471</v>
+        <v>698.1351049426476</v>
       </c>
       <c r="G35" t="n">
-        <v>330.9439133363366</v>
+        <v>330.9439133363365</v>
       </c>
       <c r="H35" t="n">
-        <v>81.03477764680152</v>
+        <v>81.0347776468015</v>
       </c>
       <c r="I35" t="n">
-        <v>81.03477764680152</v>
+        <v>81.0347776468015</v>
       </c>
       <c r="J35" t="n">
-        <v>435.4581106333046</v>
+        <v>435.4581106333044</v>
       </c>
       <c r="K35" t="n">
-        <v>766.487657811185</v>
+        <v>766.4876578111848</v>
       </c>
       <c r="L35" t="n">
-        <v>1214.060844578165</v>
+        <v>1214.060844578164</v>
       </c>
       <c r="M35" t="n">
         <v>1743.74169042109</v>
       </c>
       <c r="N35" t="n">
-        <v>2286.607134492863</v>
+        <v>2286.607134492862</v>
       </c>
       <c r="O35" t="n">
-        <v>2972.921040012887</v>
+        <v>2785.884318230758</v>
       </c>
       <c r="P35" t="n">
-        <v>3683.122285378103</v>
+        <v>3472.930444624797</v>
       </c>
       <c r="Q35" t="n">
         <v>3929.040243075382</v>
       </c>
       <c r="R35" t="n">
-        <v>4051.738882340076</v>
+        <v>4051.738882340075</v>
       </c>
       <c r="S35" t="n">
         <v>3988.841927880069</v>
@@ -7008,28 +7008,28 @@
         <v>180.8437935640128</v>
       </c>
       <c r="H36" t="n">
-        <v>90.2262662980299</v>
+        <v>90.22626629802991</v>
       </c>
       <c r="I36" t="n">
-        <v>81.03477764680152</v>
+        <v>81.0347776468015</v>
       </c>
       <c r="J36" t="n">
         <v>173.6033820606507</v>
       </c>
       <c r="K36" t="n">
-        <v>409.9726958392259</v>
+        <v>409.9726958392258</v>
       </c>
       <c r="L36" t="n">
-        <v>774.1229491547508</v>
+        <v>774.1229491547506</v>
       </c>
       <c r="M36" t="n">
         <v>1218.425987088413</v>
       </c>
       <c r="N36" t="n">
-        <v>1688.897049286976</v>
+        <v>1688.897049286975</v>
       </c>
       <c r="O36" t="n">
-        <v>2097.066362017345</v>
+        <v>2097.066362017344</v>
       </c>
       <c r="P36" t="n">
         <v>2413.871448605566</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>771.2120327200485</v>
+        <v>771.2120327200482</v>
       </c>
       <c r="C37" t="n">
-        <v>650.1794856000793</v>
+        <v>650.179485600079</v>
       </c>
       <c r="D37" t="n">
-        <v>547.9664819956812</v>
+        <v>547.9664819956811</v>
       </c>
       <c r="E37" t="n">
-        <v>447.9570242212258</v>
+        <v>447.9570242212257</v>
       </c>
       <c r="F37" t="n">
         <v>348.9707125312531</v>
@@ -7087,19 +7087,19 @@
         <v>229.1614740457772</v>
       </c>
       <c r="H37" t="n">
-        <v>130.7586790767217</v>
+        <v>130.7586790767218</v>
       </c>
       <c r="I37" t="n">
-        <v>81.03477764680152</v>
+        <v>81.0347776468015</v>
       </c>
       <c r="J37" t="n">
-        <v>172.4122227085534</v>
+        <v>172.4122227085535</v>
       </c>
       <c r="K37" t="n">
-        <v>422.2067718500734</v>
+        <v>422.2067718500736</v>
       </c>
       <c r="L37" t="n">
-        <v>784.2542935743942</v>
+        <v>784.2542935743943</v>
       </c>
       <c r="M37" t="n">
         <v>1173.819554180867</v>
@@ -7117,7 +7117,7 @@
         <v>2307.667082251216</v>
       </c>
       <c r="R37" t="n">
-        <v>2265.288930756833</v>
+        <v>2265.288930756832</v>
       </c>
       <c r="S37" t="n">
         <v>2121.331753211505</v>
@@ -7126,19 +7126,19 @@
         <v>1947.425885370584</v>
       </c>
       <c r="U37" t="n">
-        <v>1706.226106794995</v>
+        <v>1706.226106794994</v>
       </c>
       <c r="V37" t="n">
-        <v>1499.445254397046</v>
+        <v>1499.445254397045</v>
       </c>
       <c r="W37" t="n">
-        <v>1257.931720168023</v>
+        <v>1257.931720168022</v>
       </c>
       <c r="X37" t="n">
-        <v>1077.845805077943</v>
+        <v>1077.845805077942</v>
       </c>
       <c r="Y37" t="n">
-        <v>904.9568617423505</v>
+        <v>904.9568617423502</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2030.522934645911</v>
+        <v>2030.52293464591</v>
       </c>
       <c r="C38" t="n">
         <v>1709.464053513437</v>
@@ -7160,10 +7160,10 @@
         <v>1061.217373924317</v>
       </c>
       <c r="F38" t="n">
-        <v>698.1351049426471</v>
+        <v>698.1351049426476</v>
       </c>
       <c r="G38" t="n">
-        <v>330.9439133363367</v>
+        <v>330.9439133363366</v>
       </c>
       <c r="H38" t="n">
         <v>81.03477764680153</v>
@@ -7172,25 +7172,25 @@
         <v>81.03477764680153</v>
       </c>
       <c r="J38" t="n">
-        <v>268.0524616129516</v>
+        <v>268.0524616129514</v>
       </c>
       <c r="K38" t="n">
-        <v>919.9859672362851</v>
+        <v>743.3325388400081</v>
       </c>
       <c r="L38" t="n">
-        <v>1367.559154003265</v>
+        <v>1190.905725606988</v>
       </c>
       <c r="M38" t="n">
-        <v>1897.23999984619</v>
+        <v>1720.586571449913</v>
       </c>
       <c r="N38" t="n">
-        <v>2792.224577364759</v>
+        <v>2263.452015521685</v>
       </c>
       <c r="O38" t="n">
-        <v>3291.501761102655</v>
+        <v>2762.729199259581</v>
       </c>
       <c r="P38" t="n">
-        <v>3683.122285378103</v>
+        <v>3472.930444624797</v>
       </c>
       <c r="Q38" t="n">
         <v>3929.040243075382</v>
@@ -7205,16 +7205,16 @@
         <v>3830.669859619886</v>
       </c>
       <c r="U38" t="n">
-        <v>3625.041228520921</v>
+        <v>3625.04122852092</v>
       </c>
       <c r="V38" t="n">
-        <v>3341.881976985288</v>
+        <v>3341.881976985287</v>
       </c>
       <c r="W38" t="n">
-        <v>3037.016957523112</v>
+        <v>3037.016957523111</v>
       </c>
       <c r="X38" t="n">
-        <v>2711.45483506997</v>
+        <v>2711.454835069969</v>
       </c>
       <c r="Y38" t="n">
         <v>2369.219138902095</v>
@@ -7239,37 +7239,37 @@
         <v>463.7534245937368</v>
       </c>
       <c r="F39" t="n">
-        <v>317.2188666206217</v>
+        <v>317.2188666206218</v>
       </c>
       <c r="G39" t="n">
-        <v>180.8437935640128</v>
+        <v>180.8437935640129</v>
       </c>
       <c r="H39" t="n">
-        <v>90.22626629802991</v>
+        <v>90.22626629802994</v>
       </c>
       <c r="I39" t="n">
         <v>81.03477764680153</v>
       </c>
       <c r="J39" t="n">
-        <v>173.6033820606508</v>
+        <v>173.6033820606507</v>
       </c>
       <c r="K39" t="n">
-        <v>409.9726958392259</v>
+        <v>409.9726958392258</v>
       </c>
       <c r="L39" t="n">
-        <v>774.1229491547508</v>
+        <v>774.1229491547506</v>
       </c>
       <c r="M39" t="n">
         <v>1218.425987088413</v>
       </c>
       <c r="N39" t="n">
-        <v>1688.897049286976</v>
+        <v>1688.897049286975</v>
       </c>
       <c r="O39" t="n">
-        <v>2097.066362017345</v>
+        <v>2097.066362017344</v>
       </c>
       <c r="P39" t="n">
-        <v>2405.325154082449</v>
+        <v>2405.325154082448</v>
       </c>
       <c r="Q39" t="n">
         <v>2570.015091188136</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>771.212032720048</v>
+        <v>771.2120327200486</v>
       </c>
       <c r="C40" t="n">
-        <v>650.1794856000788</v>
+        <v>650.1794856000794</v>
       </c>
       <c r="D40" t="n">
-        <v>547.9664819956807</v>
+        <v>547.9664819956813</v>
       </c>
       <c r="E40" t="n">
-        <v>447.9570242212253</v>
+        <v>447.9570242212259</v>
       </c>
       <c r="F40" t="n">
-        <v>348.9707125312526</v>
+        <v>348.9707125312532</v>
       </c>
       <c r="G40" t="n">
-        <v>229.1614740457767</v>
+        <v>229.1614740457773</v>
       </c>
       <c r="H40" t="n">
-        <v>130.7586790767219</v>
+        <v>130.7586790767218</v>
       </c>
       <c r="I40" t="n">
         <v>81.03477764680153</v>
       </c>
       <c r="J40" t="n">
-        <v>172.4122227085535</v>
+        <v>172.4122227085539</v>
       </c>
       <c r="K40" t="n">
-        <v>422.2067718500734</v>
+        <v>422.2067718500739</v>
       </c>
       <c r="L40" t="n">
-        <v>784.2542935743941</v>
+        <v>784.2542935743946</v>
       </c>
       <c r="M40" t="n">
         <v>1173.819554180867</v>
@@ -7354,28 +7354,28 @@
         <v>2307.667082251216</v>
       </c>
       <c r="R40" t="n">
-        <v>2265.288930756832</v>
+        <v>2265.288930756833</v>
       </c>
       <c r="S40" t="n">
         <v>2121.331753211505</v>
       </c>
       <c r="T40" t="n">
-        <v>1947.425885370584</v>
+        <v>1947.425885370585</v>
       </c>
       <c r="U40" t="n">
         <v>1706.226106794995</v>
       </c>
       <c r="V40" t="n">
-        <v>1499.445254397045</v>
+        <v>1499.445254397046</v>
       </c>
       <c r="W40" t="n">
-        <v>1257.931720168022</v>
+        <v>1257.931720168023</v>
       </c>
       <c r="X40" t="n">
-        <v>1077.845805077942</v>
+        <v>1077.845805077943</v>
       </c>
       <c r="Y40" t="n">
-        <v>904.95686174235</v>
+        <v>904.9568617423506</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2030.522934645911</v>
+        <v>2030.52293464591</v>
       </c>
       <c r="C41" t="n">
-        <v>1709.464053513437</v>
+        <v>1709.464053513436</v>
       </c>
       <c r="D41" t="n">
-        <v>1399.101990714624</v>
+        <v>1399.101990714623</v>
       </c>
       <c r="E41" t="n">
-        <v>1061.217373924317</v>
+        <v>1061.217373924316</v>
       </c>
       <c r="F41" t="n">
-        <v>698.1351049426471</v>
+        <v>698.1351049426466</v>
       </c>
       <c r="G41" t="n">
-        <v>330.9439133363367</v>
+        <v>330.9439133363365</v>
       </c>
       <c r="H41" t="n">
-        <v>81.03477764680153</v>
+        <v>81.0347776468015</v>
       </c>
       <c r="I41" t="n">
-        <v>81.03477764680153</v>
+        <v>81.0347776468015</v>
       </c>
       <c r="J41" t="n">
-        <v>268.0524616129516</v>
+        <v>435.4581106333044</v>
       </c>
       <c r="K41" t="n">
-        <v>599.082008790832</v>
+        <v>1061.913259929775</v>
       </c>
       <c r="L41" t="n">
-        <v>1046.655195557812</v>
+        <v>1509.486446696754</v>
       </c>
       <c r="M41" t="n">
-        <v>1881.444933799374</v>
+        <v>2039.16729253968</v>
       </c>
       <c r="N41" t="n">
-        <v>2857.283833039011</v>
+        <v>2582.032736611452</v>
       </c>
       <c r="O41" t="n">
-        <v>3356.561016776907</v>
+        <v>3081.309920349348</v>
       </c>
       <c r="P41" t="n">
-        <v>3748.181541052355</v>
+        <v>3472.930444624797</v>
       </c>
       <c r="Q41" t="n">
-        <v>3994.099498749635</v>
+        <v>3929.040243075382</v>
       </c>
       <c r="R41" t="n">
-        <v>4051.738882340076</v>
+        <v>4051.738882340075</v>
       </c>
       <c r="S41" t="n">
-        <v>3988.84192788007</v>
+        <v>3988.841927880069</v>
       </c>
       <c r="T41" t="n">
-        <v>3830.669859619886</v>
+        <v>3830.669859619885</v>
       </c>
       <c r="U41" t="n">
-        <v>3625.041228520921</v>
+        <v>3625.04122852092</v>
       </c>
       <c r="V41" t="n">
-        <v>3341.881976985288</v>
+        <v>3341.881976985286</v>
       </c>
       <c r="W41" t="n">
-        <v>3037.016957523112</v>
+        <v>3037.01695752311</v>
       </c>
       <c r="X41" t="n">
-        <v>2711.454835069969</v>
+        <v>2711.454835069968</v>
       </c>
       <c r="Y41" t="n">
-        <v>2369.219138902095</v>
+        <v>2369.219138902094</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>90.22626629802991</v>
       </c>
       <c r="I42" t="n">
-        <v>81.03477764680153</v>
+        <v>81.0347776468015</v>
       </c>
       <c r="J42" t="n">
-        <v>173.6033820606508</v>
+        <v>182.1496765837691</v>
       </c>
       <c r="K42" t="n">
-        <v>409.9726958392259</v>
+        <v>418.5189903623442</v>
       </c>
       <c r="L42" t="n">
-        <v>774.1229491547508</v>
+        <v>782.669243677869</v>
       </c>
       <c r="M42" t="n">
-        <v>1218.425987088413</v>
+        <v>1226.972281611531</v>
       </c>
       <c r="N42" t="n">
-        <v>1688.897049286976</v>
+        <v>1697.443343810093</v>
       </c>
       <c r="O42" t="n">
-        <v>2097.066362017345</v>
+        <v>2105.612656540462</v>
       </c>
       <c r="P42" t="n">
         <v>2413.871448605566</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>771.2120327200487</v>
+        <v>771.2120327200483</v>
       </c>
       <c r="C43" t="n">
-        <v>650.1794856000794</v>
+        <v>650.1794856000791</v>
       </c>
       <c r="D43" t="n">
-        <v>547.9664819956813</v>
+        <v>547.9664819956811</v>
       </c>
       <c r="E43" t="n">
-        <v>447.9570242212259</v>
+        <v>447.9570242212257</v>
       </c>
       <c r="F43" t="n">
-        <v>348.9707125312532</v>
+        <v>348.970712531253</v>
       </c>
       <c r="G43" t="n">
-        <v>229.1614740457773</v>
+        <v>229.1614740457771</v>
       </c>
       <c r="H43" t="n">
         <v>130.7586790767218</v>
       </c>
       <c r="I43" t="n">
-        <v>81.03477764680153</v>
+        <v>81.0347776468015</v>
       </c>
       <c r="J43" t="n">
-        <v>172.4122227085543</v>
+        <v>172.4122227085536</v>
       </c>
       <c r="K43" t="n">
-        <v>422.2067718500742</v>
+        <v>422.2067718500736</v>
       </c>
       <c r="L43" t="n">
-        <v>784.254293574395</v>
+        <v>784.2542935743943</v>
       </c>
       <c r="M43" t="n">
         <v>1173.819554180867</v>
       </c>
       <c r="N43" t="n">
-        <v>1560.672814499111</v>
+        <v>1560.67281449911</v>
       </c>
       <c r="O43" t="n">
         <v>1905.562221807535</v>
@@ -7591,28 +7591,28 @@
         <v>2307.667082251216</v>
       </c>
       <c r="R43" t="n">
-        <v>2265.288930756833</v>
+        <v>2265.288930756832</v>
       </c>
       <c r="S43" t="n">
         <v>2121.331753211505</v>
       </c>
       <c r="T43" t="n">
-        <v>1947.425885370585</v>
+        <v>1947.425885370584</v>
       </c>
       <c r="U43" t="n">
         <v>1706.226106794995</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.445254397046</v>
+        <v>1499.445254397045</v>
       </c>
       <c r="W43" t="n">
-        <v>1257.931720168023</v>
+        <v>1257.931720168022</v>
       </c>
       <c r="X43" t="n">
         <v>1077.845805077943</v>
       </c>
       <c r="Y43" t="n">
-        <v>904.9568617423507</v>
+        <v>904.9568617423504</v>
       </c>
     </row>
     <row r="44">
@@ -7622,58 +7622,58 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2030.52293464591</v>
+        <v>2030.522934645911</v>
       </c>
       <c r="C44" t="n">
-        <v>1709.464053513436</v>
+        <v>1709.464053513437</v>
       </c>
       <c r="D44" t="n">
-        <v>1399.101990714623</v>
+        <v>1399.101990714624</v>
       </c>
       <c r="E44" t="n">
-        <v>1061.217373924316</v>
+        <v>1061.217373924317</v>
       </c>
       <c r="F44" t="n">
-        <v>698.1351049426466</v>
+        <v>698.1351049426476</v>
       </c>
       <c r="G44" t="n">
-        <v>330.9439133363367</v>
+        <v>330.9439133363365</v>
       </c>
       <c r="H44" t="n">
-        <v>81.03477764680153</v>
+        <v>81.0347776468015</v>
       </c>
       <c r="I44" t="n">
-        <v>81.03477764680153</v>
+        <v>81.0347776468015</v>
       </c>
       <c r="J44" t="n">
-        <v>268.0524616129516</v>
+        <v>268.0524616129514</v>
       </c>
       <c r="K44" t="n">
-        <v>919.9859672362851</v>
+        <v>919.9859672362848</v>
       </c>
       <c r="L44" t="n">
-        <v>1574.545702371007</v>
+        <v>1367.559154003264</v>
       </c>
       <c r="M44" t="n">
-        <v>2104.226548213933</v>
+        <v>1897.23999984619</v>
       </c>
       <c r="N44" t="n">
-        <v>2647.091992285705</v>
+        <v>2440.105443917962</v>
       </c>
       <c r="O44" t="n">
-        <v>3146.369176023602</v>
+        <v>3081.309920349348</v>
       </c>
       <c r="P44" t="n">
-        <v>3537.98970029905</v>
+        <v>3472.930444624797</v>
       </c>
       <c r="Q44" t="n">
-        <v>3994.099498749635</v>
+        <v>3929.040243075382</v>
       </c>
       <c r="R44" t="n">
-        <v>4051.738882340076</v>
+        <v>4051.738882340075</v>
       </c>
       <c r="S44" t="n">
-        <v>3988.84192788007</v>
+        <v>3988.841927880069</v>
       </c>
       <c r="T44" t="n">
         <v>3830.669859619886</v>
@@ -7682,16 +7682,16 @@
         <v>3625.04122852092</v>
       </c>
       <c r="V44" t="n">
-        <v>3341.881976985287</v>
+        <v>3341.881976985288</v>
       </c>
       <c r="W44" t="n">
-        <v>3037.01695752311</v>
+        <v>3037.016957523111</v>
       </c>
       <c r="X44" t="n">
-        <v>2711.454835069968</v>
+        <v>2711.454835069969</v>
       </c>
       <c r="Y44" t="n">
-        <v>2369.219138902094</v>
+        <v>2369.219138902095</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>90.22626629802991</v>
       </c>
       <c r="I45" t="n">
-        <v>81.03477764680153</v>
+        <v>81.0347776468015</v>
       </c>
       <c r="J45" t="n">
-        <v>173.6033820606508</v>
+        <v>173.6033820606507</v>
       </c>
       <c r="K45" t="n">
-        <v>418.5189903623431</v>
+        <v>409.9726958392258</v>
       </c>
       <c r="L45" t="n">
-        <v>782.6692436778679</v>
+        <v>774.1229491547506</v>
       </c>
       <c r="M45" t="n">
-        <v>1226.97228161153</v>
+        <v>1226.972281611531</v>
       </c>
       <c r="N45" t="n">
         <v>1697.443343810093</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>771.2120327200487</v>
+        <v>771.2120327200483</v>
       </c>
       <c r="C46" t="n">
-        <v>650.1794856000794</v>
+        <v>650.1794856000791</v>
       </c>
       <c r="D46" t="n">
-        <v>547.9664819956813</v>
+        <v>547.9664819956811</v>
       </c>
       <c r="E46" t="n">
-        <v>447.9570242212259</v>
+        <v>447.9570242212257</v>
       </c>
       <c r="F46" t="n">
-        <v>348.9707125312532</v>
+        <v>348.970712531253</v>
       </c>
       <c r="G46" t="n">
-        <v>229.1614740457773</v>
+        <v>229.1614740457771</v>
       </c>
       <c r="H46" t="n">
         <v>130.7586790767218</v>
       </c>
       <c r="I46" t="n">
-        <v>81.03477764680153</v>
+        <v>81.0347776468015</v>
       </c>
       <c r="J46" t="n">
         <v>172.4122227085535</v>
       </c>
       <c r="K46" t="n">
-        <v>422.2067718500742</v>
+        <v>422.2067718500736</v>
       </c>
       <c r="L46" t="n">
-        <v>784.254293574395</v>
+        <v>784.2542935743943</v>
       </c>
       <c r="M46" t="n">
         <v>1173.819554180867</v>
       </c>
       <c r="N46" t="n">
-        <v>1560.672814499111</v>
+        <v>1560.67281449911</v>
       </c>
       <c r="O46" t="n">
         <v>1905.562221807535</v>
@@ -7828,28 +7828,28 @@
         <v>2307.667082251216</v>
       </c>
       <c r="R46" t="n">
-        <v>2265.288930756833</v>
+        <v>2265.288930756832</v>
       </c>
       <c r="S46" t="n">
         <v>2121.331753211505</v>
       </c>
       <c r="T46" t="n">
-        <v>1947.425885370585</v>
+        <v>1947.425885370584</v>
       </c>
       <c r="U46" t="n">
         <v>1706.226106794995</v>
       </c>
       <c r="V46" t="n">
-        <v>1499.445254397046</v>
+        <v>1499.445254397045</v>
       </c>
       <c r="W46" t="n">
-        <v>1257.931720168023</v>
+        <v>1257.931720168022</v>
       </c>
       <c r="X46" t="n">
         <v>1077.845805077943</v>
       </c>
       <c r="Y46" t="n">
-        <v>904.9568617423507</v>
+        <v>904.9568617423504</v>
       </c>
     </row>
   </sheetData>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>8.632620730422644</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>8.63262073042182</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.8788455650708329</v>
+        <v>0.8788455650708613</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,22 +8927,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>278.9399061259883</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>281.2866105256719</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>8.632620730421365</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>8.632620730422701</v>
       </c>
       <c r="R15" t="n">
-        <v>0.8788455650708329</v>
+        <v>0.8788455650708613</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>145.7076061102795</v>
       </c>
       <c r="K17" t="n">
-        <v>152.4225528919987</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>8.632620730421309</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>8.632620730422246</v>
       </c>
       <c r="R18" t="n">
-        <v>0.8788455650708329</v>
+        <v>0.8788455650708613</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>209.0773215835794</v>
+        <v>298.4096991096886</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>8.632620730421337</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>8.632620730422246</v>
       </c>
       <c r="R21" t="n">
-        <v>0.8788455650708329</v>
+        <v>0.8788455650708613</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>61.21115627676102</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>327.8765102641981</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>8.632620730422502</v>
       </c>
       <c r="P24" t="n">
-        <v>8.632620730421365</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.8788455650708329</v>
+        <v>0.8788455650708613</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>143.360901710597</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>17.99278078892848</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>8.632620730422602</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>8.632620730421309</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.8788455650708329</v>
+        <v>0.8788455650708613</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>308.1908004026638</v>
+        <v>298.4096991096877</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>8.632620730421365</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>8.632620730422246</v>
       </c>
       <c r="R30" t="n">
-        <v>0.8788455650708329</v>
+        <v>0.8788455650708613</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>327.8765102641972</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>298.4096991096877</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>8.632620730422587</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>8.632620730421365</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.8788455650708329</v>
+        <v>0.8788455650708613</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>188.9259815981088</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>298.4096991096872</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>8.632620730421365</v>
+        <v>8.632620730422332</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.8788455650708329</v>
+        <v>0.8788455650708613</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>145.7076061102791</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10832,16 +10832,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>355.6758923705013</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>8.63262073042128</v>
+        <v>8.632620730422246</v>
       </c>
       <c r="R39" t="n">
-        <v>0.8788455650708329</v>
+        <v>0.8788455650708613</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>298.4096991096872</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>308.1908004026637</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>8.63262073042263</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>8.632620730421365</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.8788455650708329</v>
+        <v>0.8788455650708613</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>209.0773215835783</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>143.3609017105966</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,13 +11376,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>8.632620730421365</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>8.632620730422616</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.8788455650708329</v>
+        <v>0.8788455650708613</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>96.76862838557561</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.43100206708758</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.6925843652644</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>204.0149470274405</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9969442378342</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>346.3100807843036</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>47.97872013475353</v>
+        <v>12.0851324485475</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0357455504794</v>
       </c>
       <c r="H13" t="n">
-        <v>144.8433664692232</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.6512618654794</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>189.9422052197322</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5914086123697</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.212380239692</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>94.33152685013073</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9969442378342</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>208.7581147069708</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0357455504794</v>
       </c>
       <c r="H16" t="n">
-        <v>144.8433664692232</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.37896942929819</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.9422052197322</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5914086123697</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.212380239692</v>
+        <v>131.177684838325</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>52.05658757565382</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1186306.262151859</v>
+        <v>1186306.262151858</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122891.4508075558</v>
+        <v>122891.4508075557</v>
       </c>
       <c r="C2" t="n">
-        <v>122891.4508075558</v>
+        <v>122891.4508075557</v>
       </c>
       <c r="D2" t="n">
         <v>122891.4508075558</v>
@@ -26323,7 +26323,7 @@
         <v>101927.2616672475</v>
       </c>
       <c r="F2" t="n">
-        <v>108984.8036822572</v>
+        <v>108984.8036822571</v>
       </c>
       <c r="G2" t="n">
         <v>123156.2654796425</v>
@@ -26350,7 +26350,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="P2" t="n">
         <v>123156.2654796425</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1117324.446093305</v>
+        <v>1117324.446093304</v>
       </c>
       <c r="F3" t="n">
-        <v>43640.72137366599</v>
+        <v>43640.72137366596</v>
       </c>
       <c r="G3" t="n">
-        <v>47800.29870616373</v>
+        <v>47800.29870616394</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37939.67955988664</v>
+        <v>37939.67955988667</v>
       </c>
       <c r="M3" t="n">
-        <v>205505.6817252603</v>
+        <v>205505.6817252601</v>
       </c>
       <c r="N3" t="n">
         <v>37304.78547806443</v>
       </c>
       <c r="O3" t="n">
-        <v>8657.780827738579</v>
+        <v>8657.780827738688</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>8816.954414008056</v>
+        <v>8816.954414008069</v>
       </c>
       <c r="F4" t="n">
-        <v>24490.77999575588</v>
+        <v>24490.77999575586</v>
       </c>
       <c r="G4" t="n">
-        <v>75890.88432859782</v>
+        <v>75890.88432859787</v>
       </c>
       <c r="H4" t="n">
-        <v>75890.88432859782</v>
+        <v>75890.88432859787</v>
       </c>
       <c r="I4" t="n">
+        <v>75890.88432859788</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75890.88432859785</v>
+      </c>
+      <c r="K4" t="n">
         <v>75890.88432859784</v>
       </c>
-      <c r="J4" t="n">
-        <v>75890.88432859781</v>
-      </c>
-      <c r="K4" t="n">
-        <v>75890.88432859779</v>
-      </c>
       <c r="L4" t="n">
-        <v>75890.88432859781</v>
+        <v>75890.88432859784</v>
       </c>
       <c r="M4" t="n">
-        <v>75890.88432859781</v>
+        <v>75890.88432859787</v>
       </c>
       <c r="N4" t="n">
-        <v>75890.88432859779</v>
+        <v>75890.88432859785</v>
       </c>
       <c r="O4" t="n">
-        <v>75890.88432859779</v>
+        <v>75890.88432859784</v>
       </c>
       <c r="P4" t="n">
-        <v>75890.88432859778</v>
+        <v>75890.88432859785</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>73775.62242495251</v>
+        <v>73775.62242495247</v>
       </c>
       <c r="F5" t="n">
-        <v>83036.05903286555</v>
+        <v>83036.05903286549</v>
       </c>
       <c r="G5" t="n">
-        <v>89210.36891590962</v>
+        <v>89210.36891590961</v>
       </c>
       <c r="H5" t="n">
-        <v>89210.36891590962</v>
+        <v>89210.36891590961</v>
       </c>
       <c r="I5" t="n">
-        <v>89210.36891590962</v>
+        <v>89210.36891590961</v>
       </c>
       <c r="J5" t="n">
-        <v>89210.36891590961</v>
+        <v>89210.3689159096</v>
       </c>
       <c r="K5" t="n">
-        <v>89210.36891590961</v>
+        <v>89210.3689159096</v>
       </c>
       <c r="L5" t="n">
-        <v>89210.36891590961</v>
+        <v>89210.3689159096</v>
       </c>
       <c r="M5" t="n">
-        <v>89210.36891590961</v>
+        <v>89210.36891590958</v>
       </c>
       <c r="N5" t="n">
-        <v>89210.36891590961</v>
+        <v>89210.3689159096</v>
       </c>
       <c r="O5" t="n">
-        <v>89210.36891590961</v>
+        <v>89210.36891590958</v>
       </c>
       <c r="P5" t="n">
-        <v>89210.36891590961</v>
+        <v>89210.36891590958</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325508.5478054031</v>
+        <v>-325512.9613832713</v>
       </c>
       <c r="C6" t="n">
-        <v>-325508.5478054032</v>
+        <v>-325512.9613832713</v>
       </c>
       <c r="D6" t="n">
-        <v>-325508.5478054031</v>
+        <v>-325512.9613832713</v>
       </c>
       <c r="E6" t="n">
-        <v>-1097989.761265018</v>
+        <v>-1098343.577995224</v>
       </c>
       <c r="F6" t="n">
-        <v>-42182.75672003022</v>
+        <v>-42418.94774998659</v>
       </c>
       <c r="G6" t="n">
-        <v>-89745.2864710287</v>
+        <v>-89745.28647102887</v>
       </c>
       <c r="H6" t="n">
         <v>-41944.98776486501</v>
       </c>
       <c r="I6" t="n">
-        <v>-41944.98776486504</v>
+        <v>-41944.98776486507</v>
       </c>
       <c r="J6" t="n">
-        <v>-41944.98776486493</v>
+        <v>-41944.98776486494</v>
       </c>
       <c r="K6" t="n">
-        <v>-41944.9877648649</v>
+        <v>-41944.98776486491</v>
       </c>
       <c r="L6" t="n">
-        <v>-79884.66732475159</v>
+        <v>-79884.66732475162</v>
       </c>
       <c r="M6" t="n">
-        <v>-247450.6694901252</v>
+        <v>-247450.6694901251</v>
       </c>
       <c r="N6" t="n">
-        <v>-79249.77324292934</v>
+        <v>-79249.77324292935</v>
       </c>
       <c r="O6" t="n">
-        <v>-50602.76859260353</v>
+        <v>-50602.76859260362</v>
       </c>
       <c r="P6" t="n">
-        <v>-41944.98776486493</v>
+        <v>-41944.98776486494</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="H2" t="n">
         <v>47.42459944985829</v>
@@ -26713,19 +26713,19 @@
         <v>47.42459944985829</v>
       </c>
       <c r="L2" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="M2" t="n">
+        <v>47.42459944985834</v>
+      </c>
+      <c r="N2" t="n">
+        <v>47.4245994498583</v>
+      </c>
+      <c r="O2" t="n">
         <v>47.42459944985831</v>
       </c>
-      <c r="N2" t="n">
-        <v>47.42459944985827</v>
-      </c>
-      <c r="O2" t="n">
-        <v>47.42459944985827</v>
-      </c>
       <c r="P2" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
     </row>
     <row r="3">
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>824.6484074302994</v>
+        <v>824.6484074302987</v>
       </c>
       <c r="F4" t="n">
-        <v>976.9582200604481</v>
+        <v>976.9582200604473</v>
       </c>
       <c r="G4" t="n">
         <v>1012.934720585019</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>824.6484074302994</v>
+        <v>824.6484074302987</v>
       </c>
       <c r="F4" t="n">
-        <v>152.3098126301487</v>
+        <v>152.3098126301486</v>
       </c>
       <c r="G4" t="n">
-        <v>35.97650052457118</v>
+        <v>35.97650052457186</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>824.6484074302992</v>
+        <v>824.6484074302986</v>
       </c>
       <c r="N4" t="n">
         <v>152.3098126301488</v>
       </c>
       <c r="O4" t="n">
-        <v>35.97650052457118</v>
+        <v>35.97650052457163</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>824.6484074302994</v>
+        <v>824.6484074302987</v>
       </c>
       <c r="N4" t="n">
-        <v>152.3098126301487</v>
+        <v>152.3098126301486</v>
       </c>
       <c r="O4" t="n">
-        <v>35.97650052457118</v>
+        <v>35.97650052457186</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="C17" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="D17" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="E17" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="F17" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="G17" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="H17" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="I17" t="n">
-        <v>42.43100206708752</v>
+        <v>42.43100206708758</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="T17" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="U17" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="V17" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="W17" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="X17" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="C19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="D19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="E19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="F19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="G19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="H19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="I19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="J19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="K19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="L19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="M19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="N19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="O19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="P19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="R19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="S19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="T19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="U19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="V19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="W19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="X19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.4245994498583</v>
+        <v>47.42459944985833</v>
       </c>
     </row>
     <row r="20">
@@ -28819,7 +28819,7 @@
         <v>47.42459944985829</v>
       </c>
       <c r="I20" t="n">
-        <v>42.43100206708752</v>
+        <v>42.43100206708758</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28992,13 +28992,13 @@
         <v>47.42459944985829</v>
       </c>
       <c r="N22" t="n">
-        <v>47.42459944985853</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="O22" t="n">
         <v>47.42459944985829</v>
       </c>
       <c r="P22" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498591</v>
       </c>
       <c r="Q22" t="n">
         <v>47.42459944985829</v>
@@ -29056,7 +29056,7 @@
         <v>47.42459944985829</v>
       </c>
       <c r="I23" t="n">
-        <v>42.43100206708752</v>
+        <v>42.43100206708758</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>47.42459944985829</v>
       </c>
       <c r="M25" t="n">
-        <v>47.42459944985842</v>
+        <v>47.42459944985829</v>
       </c>
       <c r="N25" t="n">
         <v>47.42459944985829</v>
@@ -29238,7 +29238,7 @@
         <v>47.42459944985829</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.42459944985829</v>
+        <v>47.42459944985916</v>
       </c>
       <c r="R25" t="n">
         <v>47.42459944985829</v>
@@ -29293,7 +29293,7 @@
         <v>47.42459944985829</v>
       </c>
       <c r="I26" t="n">
-        <v>42.43100206708752</v>
+        <v>42.43100206708758</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>47.42459944985829</v>
       </c>
       <c r="I29" t="n">
-        <v>42.43100206708752</v>
+        <v>42.43100206708758</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="C32" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="D32" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="E32" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="F32" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="G32" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="H32" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="I32" t="n">
-        <v>42.43100206708752</v>
+        <v>42.43100206708758</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="T32" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="U32" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="V32" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="W32" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="X32" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="C34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="D34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="E34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="F34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="G34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="H34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="I34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="J34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="K34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="L34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="M34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="N34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="O34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="P34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="R34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="S34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="T34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="U34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="V34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="W34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="X34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.42459944985829</v>
+        <v>47.4245994498583</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="C35" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="D35" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="E35" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="F35" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="G35" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="H35" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="I35" t="n">
-        <v>42.43100206708752</v>
+        <v>42.43100206708758</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="T35" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="U35" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="V35" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="W35" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="X35" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="C37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="D37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="E37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="F37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="G37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="H37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="I37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="J37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="K37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="L37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="M37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="N37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985819</v>
       </c>
       <c r="O37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="P37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="R37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="S37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="T37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="U37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="V37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="W37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="X37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.42459944985831</v>
+        <v>47.42459944985834</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="C38" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="D38" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="E38" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="F38" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="G38" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="H38" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="I38" t="n">
-        <v>42.43100206708752</v>
+        <v>42.43100206708758</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="T38" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="U38" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="V38" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="W38" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="X38" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="C40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="D40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="E40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="F40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="G40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="H40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="I40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="J40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="K40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="L40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="M40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="N40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="O40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="P40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="R40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="S40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="T40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="U40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="V40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="W40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="X40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.42459944985827</v>
+        <v>47.4245994498583</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="C41" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="D41" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="E41" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="F41" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="G41" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="H41" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="I41" t="n">
-        <v>42.43100206708752</v>
+        <v>42.43100206708758</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="T41" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="U41" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="V41" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="W41" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="X41" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="C43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="D43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="E43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="F43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="G43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="H43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="I43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="J43" t="n">
-        <v>47.42459944985903</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="K43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="L43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="M43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="N43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="O43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="P43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="R43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="S43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="T43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="U43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="V43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="W43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="X43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985831</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="C44" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="D44" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="E44" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="F44" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="G44" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="H44" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="I44" t="n">
-        <v>42.43100206708752</v>
+        <v>42.43100206708758</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="T44" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="U44" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="V44" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="W44" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="X44" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="C46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="D46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="E46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="F46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="G46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="H46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="I46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="J46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="K46" t="n">
-        <v>47.42459944985902</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="L46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="M46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="N46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="O46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="P46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="R46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="S46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="T46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="U46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="V46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="W46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="X46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.42459944985827</v>
+        <v>47.42459944985832</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.358858375029329</v>
+        <v>4.358858375029328</v>
       </c>
       <c r="H11" t="n">
-        <v>44.64015833326913</v>
+        <v>44.64015833326912</v>
       </c>
       <c r="I11" t="n">
-        <v>168.0448875033184</v>
+        <v>168.0448875033183</v>
       </c>
       <c r="J11" t="n">
-        <v>369.9526560076459</v>
+        <v>369.9526560076458</v>
       </c>
       <c r="K11" t="n">
-        <v>554.4631310226375</v>
+        <v>554.4631310226374</v>
       </c>
       <c r="L11" t="n">
-        <v>687.8605430174415</v>
+        <v>687.8605430174413</v>
       </c>
       <c r="M11" t="n">
-        <v>765.3773906443693</v>
+        <v>765.3773906443691</v>
       </c>
       <c r="N11" t="n">
-        <v>777.7619970024215</v>
+        <v>777.7619970024213</v>
       </c>
       <c r="O11" t="n">
-        <v>734.4185990357234</v>
+        <v>734.4185990357233</v>
       </c>
       <c r="P11" t="n">
-        <v>626.8092829021869</v>
+        <v>626.8092829021867</v>
       </c>
       <c r="Q11" t="n">
-        <v>470.7076673464488</v>
+        <v>470.7076673464487</v>
       </c>
       <c r="R11" t="n">
-        <v>273.8071374004364</v>
+        <v>273.8071374004363</v>
       </c>
       <c r="S11" t="n">
-        <v>99.32748522098095</v>
+        <v>99.32748522098092</v>
       </c>
       <c r="T11" t="n">
         <v>19.0809025366909</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3487086700023463</v>
+        <v>0.3487086700023462</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>2.332194837167817</v>
       </c>
       <c r="H12" t="n">
-        <v>22.5240922431734</v>
+        <v>22.52409224317339</v>
       </c>
       <c r="I12" t="n">
-        <v>80.29705908669898</v>
+        <v>80.29705908669895</v>
       </c>
       <c r="J12" t="n">
         <v>220.3412674887366</v>
@@ -31844,31 +31844,31 @@
         <v>376.5983215789803</v>
       </c>
       <c r="L12" t="n">
-        <v>506.3829184824245</v>
+        <v>506.3829184824244</v>
       </c>
       <c r="M12" t="n">
-        <v>590.9249813297578</v>
+        <v>590.9249813297577</v>
       </c>
       <c r="N12" t="n">
-        <v>606.5650072333964</v>
+        <v>606.5650072333963</v>
       </c>
       <c r="O12" t="n">
-        <v>554.8884795256253</v>
+        <v>554.8884795256251</v>
       </c>
       <c r="P12" t="n">
-        <v>445.3469246518089</v>
+        <v>445.3469246518088</v>
       </c>
       <c r="Q12" t="n">
-        <v>297.702625179527</v>
+        <v>297.7026251795269</v>
       </c>
       <c r="R12" t="n">
         <v>144.8006583988931</v>
       </c>
       <c r="S12" t="n">
-        <v>43.31949620791973</v>
+        <v>43.31949620791972</v>
       </c>
       <c r="T12" t="n">
-        <v>9.400381821742206</v>
+        <v>9.400381821742204</v>
       </c>
       <c r="U12" t="n">
         <v>0.1534338708663038</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.955233807979346</v>
+        <v>1.955233807979345</v>
       </c>
       <c r="H13" t="n">
-        <v>17.38380603821638</v>
+        <v>17.38380603821637</v>
       </c>
       <c r="I13" t="n">
-        <v>58.79921306177889</v>
+        <v>58.79921306177888</v>
       </c>
       <c r="J13" t="n">
         <v>138.2350302241397</v>
@@ -31929,25 +31929,25 @@
         <v>306.4917868271623</v>
       </c>
       <c r="N13" t="n">
-        <v>299.2040971792396</v>
+        <v>299.2040971792395</v>
       </c>
       <c r="O13" t="n">
         <v>276.3634113314807</v>
       </c>
       <c r="P13" t="n">
-        <v>236.4766416487019</v>
+        <v>236.4766416487018</v>
       </c>
       <c r="Q13" t="n">
         <v>163.7241691390705</v>
       </c>
       <c r="R13" t="n">
-        <v>87.91442194787129</v>
+        <v>87.91442194787128</v>
       </c>
       <c r="S13" t="n">
-        <v>34.07439281724005</v>
+        <v>34.07439281724004</v>
       </c>
       <c r="T13" t="n">
-        <v>8.354180815911748</v>
+        <v>8.354180815911747</v>
       </c>
       <c r="U13" t="n">
         <v>0.1066491167988735</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.358858375029329</v>
+        <v>4.358858375029328</v>
       </c>
       <c r="H14" t="n">
-        <v>44.64015833326913</v>
+        <v>44.64015833326912</v>
       </c>
       <c r="I14" t="n">
-        <v>168.0448875033184</v>
+        <v>168.0448875033183</v>
       </c>
       <c r="J14" t="n">
-        <v>369.9526560076459</v>
+        <v>369.9526560076458</v>
       </c>
       <c r="K14" t="n">
-        <v>554.4631310226375</v>
+        <v>554.4631310226374</v>
       </c>
       <c r="L14" t="n">
-        <v>687.8605430174415</v>
+        <v>687.8605430174413</v>
       </c>
       <c r="M14" t="n">
-        <v>765.3773906443693</v>
+        <v>765.3773906443691</v>
       </c>
       <c r="N14" t="n">
-        <v>777.7619970024215</v>
+        <v>777.7619970024213</v>
       </c>
       <c r="O14" t="n">
-        <v>734.4185990357234</v>
+        <v>734.4185990357233</v>
       </c>
       <c r="P14" t="n">
-        <v>626.8092829021869</v>
+        <v>626.8092829021867</v>
       </c>
       <c r="Q14" t="n">
-        <v>470.7076673464488</v>
+        <v>470.7076673464487</v>
       </c>
       <c r="R14" t="n">
-        <v>273.8071374004364</v>
+        <v>273.8071374004363</v>
       </c>
       <c r="S14" t="n">
-        <v>99.32748522098095</v>
+        <v>99.32748522098092</v>
       </c>
       <c r="T14" t="n">
         <v>19.0809025366909</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3487086700023463</v>
+        <v>0.3487086700023462</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>2.332194837167817</v>
       </c>
       <c r="H15" t="n">
-        <v>22.5240922431734</v>
+        <v>22.52409224317339</v>
       </c>
       <c r="I15" t="n">
-        <v>80.29705908669898</v>
+        <v>80.29705908669895</v>
       </c>
       <c r="J15" t="n">
         <v>220.3412674887366</v>
@@ -32081,31 +32081,31 @@
         <v>376.5983215789803</v>
       </c>
       <c r="L15" t="n">
-        <v>506.3829184824245</v>
+        <v>506.3829184824244</v>
       </c>
       <c r="M15" t="n">
-        <v>590.9249813297578</v>
+        <v>590.9249813297577</v>
       </c>
       <c r="N15" t="n">
-        <v>606.5650072333964</v>
+        <v>606.5650072333963</v>
       </c>
       <c r="O15" t="n">
-        <v>554.8884795256253</v>
+        <v>554.8884795256251</v>
       </c>
       <c r="P15" t="n">
-        <v>445.3469246518089</v>
+        <v>445.3469246518088</v>
       </c>
       <c r="Q15" t="n">
-        <v>297.702625179527</v>
+        <v>297.7026251795269</v>
       </c>
       <c r="R15" t="n">
         <v>144.8006583988931</v>
       </c>
       <c r="S15" t="n">
-        <v>43.31949620791973</v>
+        <v>43.31949620791972</v>
       </c>
       <c r="T15" t="n">
-        <v>9.400381821742206</v>
+        <v>9.400381821742204</v>
       </c>
       <c r="U15" t="n">
         <v>0.1534338708663038</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.955233807979346</v>
+        <v>1.955233807979345</v>
       </c>
       <c r="H16" t="n">
-        <v>17.38380603821638</v>
+        <v>17.38380603821637</v>
       </c>
       <c r="I16" t="n">
-        <v>58.79921306177889</v>
+        <v>58.79921306177888</v>
       </c>
       <c r="J16" t="n">
         <v>138.2350302241397</v>
@@ -32166,25 +32166,25 @@
         <v>306.4917868271623</v>
       </c>
       <c r="N16" t="n">
-        <v>299.2040971792396</v>
+        <v>299.2040971792395</v>
       </c>
       <c r="O16" t="n">
         <v>276.3634113314807</v>
       </c>
       <c r="P16" t="n">
-        <v>236.4766416487019</v>
+        <v>236.4766416487018</v>
       </c>
       <c r="Q16" t="n">
         <v>163.7241691390705</v>
       </c>
       <c r="R16" t="n">
-        <v>87.91442194787129</v>
+        <v>87.91442194787128</v>
       </c>
       <c r="S16" t="n">
-        <v>34.07439281724005</v>
+        <v>34.07439281724004</v>
       </c>
       <c r="T16" t="n">
-        <v>8.354180815911748</v>
+        <v>8.354180815911747</v>
       </c>
       <c r="U16" t="n">
         <v>0.1066491167988735</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.358858375029329</v>
+        <v>4.358858375029328</v>
       </c>
       <c r="H17" t="n">
-        <v>44.64015833326913</v>
+        <v>44.64015833326912</v>
       </c>
       <c r="I17" t="n">
-        <v>168.0448875033184</v>
+        <v>168.0448875033183</v>
       </c>
       <c r="J17" t="n">
-        <v>369.9526560076459</v>
+        <v>369.9526560076458</v>
       </c>
       <c r="K17" t="n">
-        <v>554.4631310226375</v>
+        <v>554.4631310226374</v>
       </c>
       <c r="L17" t="n">
-        <v>687.8605430174415</v>
+        <v>687.8605430174413</v>
       </c>
       <c r="M17" t="n">
-        <v>765.3773906443693</v>
+        <v>765.3773906443691</v>
       </c>
       <c r="N17" t="n">
-        <v>777.7619970024215</v>
+        <v>777.7619970024213</v>
       </c>
       <c r="O17" t="n">
-        <v>734.4185990357234</v>
+        <v>734.4185990357233</v>
       </c>
       <c r="P17" t="n">
-        <v>626.8092829021869</v>
+        <v>626.8092829021867</v>
       </c>
       <c r="Q17" t="n">
-        <v>470.7076673464488</v>
+        <v>470.7076673464487</v>
       </c>
       <c r="R17" t="n">
-        <v>273.8071374004364</v>
+        <v>273.8071374004363</v>
       </c>
       <c r="S17" t="n">
-        <v>99.32748522098095</v>
+        <v>99.32748522098092</v>
       </c>
       <c r="T17" t="n">
         <v>19.0809025366909</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3487086700023463</v>
+        <v>0.3487086700023462</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>2.332194837167817</v>
       </c>
       <c r="H18" t="n">
-        <v>22.5240922431734</v>
+        <v>22.52409224317339</v>
       </c>
       <c r="I18" t="n">
-        <v>80.29705908669898</v>
+        <v>80.29705908669895</v>
       </c>
       <c r="J18" t="n">
         <v>220.3412674887366</v>
@@ -32318,31 +32318,31 @@
         <v>376.5983215789803</v>
       </c>
       <c r="L18" t="n">
-        <v>506.3829184824245</v>
+        <v>506.3829184824244</v>
       </c>
       <c r="M18" t="n">
-        <v>590.9249813297578</v>
+        <v>590.9249813297577</v>
       </c>
       <c r="N18" t="n">
-        <v>606.5650072333964</v>
+        <v>606.5650072333963</v>
       </c>
       <c r="O18" t="n">
-        <v>554.8884795256253</v>
+        <v>554.8884795256251</v>
       </c>
       <c r="P18" t="n">
-        <v>445.3469246518089</v>
+        <v>445.3469246518088</v>
       </c>
       <c r="Q18" t="n">
-        <v>297.702625179527</v>
+        <v>297.7026251795269</v>
       </c>
       <c r="R18" t="n">
         <v>144.8006583988931</v>
       </c>
       <c r="S18" t="n">
-        <v>43.31949620791973</v>
+        <v>43.31949620791972</v>
       </c>
       <c r="T18" t="n">
-        <v>9.400381821742206</v>
+        <v>9.400381821742204</v>
       </c>
       <c r="U18" t="n">
         <v>0.1534338708663038</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.955233807979346</v>
+        <v>1.955233807979345</v>
       </c>
       <c r="H19" t="n">
-        <v>17.38380603821638</v>
+        <v>17.38380603821637</v>
       </c>
       <c r="I19" t="n">
-        <v>58.79921306177889</v>
+        <v>58.79921306177888</v>
       </c>
       <c r="J19" t="n">
         <v>138.2350302241397</v>
@@ -32403,25 +32403,25 @@
         <v>306.4917868271623</v>
       </c>
       <c r="N19" t="n">
-        <v>299.2040971792396</v>
+        <v>299.2040971792395</v>
       </c>
       <c r="O19" t="n">
         <v>276.3634113314807</v>
       </c>
       <c r="P19" t="n">
-        <v>236.4766416487019</v>
+        <v>236.4766416487018</v>
       </c>
       <c r="Q19" t="n">
         <v>163.7241691390705</v>
       </c>
       <c r="R19" t="n">
-        <v>87.91442194787129</v>
+        <v>87.91442194787128</v>
       </c>
       <c r="S19" t="n">
-        <v>34.07439281724005</v>
+        <v>34.07439281724004</v>
       </c>
       <c r="T19" t="n">
-        <v>8.354180815911748</v>
+        <v>8.354180815911747</v>
       </c>
       <c r="U19" t="n">
         <v>0.1066491167988735</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.358858375029329</v>
+        <v>4.358858375029328</v>
       </c>
       <c r="H20" t="n">
-        <v>44.64015833326913</v>
+        <v>44.64015833326912</v>
       </c>
       <c r="I20" t="n">
-        <v>168.0448875033184</v>
+        <v>168.0448875033183</v>
       </c>
       <c r="J20" t="n">
-        <v>369.9526560076459</v>
+        <v>369.9526560076458</v>
       </c>
       <c r="K20" t="n">
-        <v>554.4631310226375</v>
+        <v>554.4631310226374</v>
       </c>
       <c r="L20" t="n">
-        <v>687.8605430174415</v>
+        <v>687.8605430174413</v>
       </c>
       <c r="M20" t="n">
-        <v>765.3773906443693</v>
+        <v>765.3773906443691</v>
       </c>
       <c r="N20" t="n">
-        <v>777.7619970024215</v>
+        <v>777.7619970024213</v>
       </c>
       <c r="O20" t="n">
-        <v>734.4185990357234</v>
+        <v>734.4185990357233</v>
       </c>
       <c r="P20" t="n">
-        <v>626.8092829021869</v>
+        <v>626.8092829021867</v>
       </c>
       <c r="Q20" t="n">
-        <v>470.7076673464488</v>
+        <v>470.7076673464487</v>
       </c>
       <c r="R20" t="n">
-        <v>273.8071374004364</v>
+        <v>273.8071374004363</v>
       </c>
       <c r="S20" t="n">
-        <v>99.32748522098095</v>
+        <v>99.32748522098092</v>
       </c>
       <c r="T20" t="n">
         <v>19.0809025366909</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3487086700023463</v>
+        <v>0.3487086700023462</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>2.332194837167817</v>
       </c>
       <c r="H21" t="n">
-        <v>22.5240922431734</v>
+        <v>22.52409224317339</v>
       </c>
       <c r="I21" t="n">
-        <v>80.29705908669898</v>
+        <v>80.29705908669895</v>
       </c>
       <c r="J21" t="n">
         <v>220.3412674887366</v>
@@ -32555,31 +32555,31 @@
         <v>376.5983215789803</v>
       </c>
       <c r="L21" t="n">
-        <v>506.3829184824245</v>
+        <v>506.3829184824244</v>
       </c>
       <c r="M21" t="n">
-        <v>590.9249813297578</v>
+        <v>590.9249813297577</v>
       </c>
       <c r="N21" t="n">
-        <v>606.5650072333964</v>
+        <v>606.5650072333963</v>
       </c>
       <c r="O21" t="n">
-        <v>554.8884795256253</v>
+        <v>554.8884795256251</v>
       </c>
       <c r="P21" t="n">
-        <v>445.3469246518089</v>
+        <v>445.3469246518088</v>
       </c>
       <c r="Q21" t="n">
-        <v>297.702625179527</v>
+        <v>297.7026251795269</v>
       </c>
       <c r="R21" t="n">
         <v>144.8006583988931</v>
       </c>
       <c r="S21" t="n">
-        <v>43.31949620791973</v>
+        <v>43.31949620791972</v>
       </c>
       <c r="T21" t="n">
-        <v>9.400381821742206</v>
+        <v>9.400381821742204</v>
       </c>
       <c r="U21" t="n">
         <v>0.1534338708663038</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.955233807979346</v>
+        <v>1.955233807979345</v>
       </c>
       <c r="H22" t="n">
-        <v>17.38380603821638</v>
+        <v>17.38380603821637</v>
       </c>
       <c r="I22" t="n">
-        <v>58.79921306177889</v>
+        <v>58.79921306177888</v>
       </c>
       <c r="J22" t="n">
         <v>138.2350302241397</v>
@@ -32640,25 +32640,25 @@
         <v>306.4917868271623</v>
       </c>
       <c r="N22" t="n">
-        <v>299.2040971792396</v>
+        <v>299.2040971792395</v>
       </c>
       <c r="O22" t="n">
         <v>276.3634113314807</v>
       </c>
       <c r="P22" t="n">
-        <v>236.4766416487019</v>
+        <v>236.4766416487018</v>
       </c>
       <c r="Q22" t="n">
         <v>163.7241691390705</v>
       </c>
       <c r="R22" t="n">
-        <v>87.91442194787129</v>
+        <v>87.91442194787128</v>
       </c>
       <c r="S22" t="n">
-        <v>34.07439281724005</v>
+        <v>34.07439281724004</v>
       </c>
       <c r="T22" t="n">
-        <v>8.354180815911748</v>
+        <v>8.354180815911747</v>
       </c>
       <c r="U22" t="n">
         <v>0.1066491167988735</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.358858375029329</v>
+        <v>4.358858375029328</v>
       </c>
       <c r="H23" t="n">
-        <v>44.64015833326913</v>
+        <v>44.64015833326912</v>
       </c>
       <c r="I23" t="n">
-        <v>168.0448875033184</v>
+        <v>168.0448875033183</v>
       </c>
       <c r="J23" t="n">
-        <v>369.9526560076459</v>
+        <v>369.9526560076458</v>
       </c>
       <c r="K23" t="n">
-        <v>554.4631310226375</v>
+        <v>554.4631310226374</v>
       </c>
       <c r="L23" t="n">
-        <v>687.8605430174415</v>
+        <v>687.8605430174413</v>
       </c>
       <c r="M23" t="n">
-        <v>765.3773906443693</v>
+        <v>765.3773906443691</v>
       </c>
       <c r="N23" t="n">
-        <v>777.7619970024215</v>
+        <v>777.7619970024213</v>
       </c>
       <c r="O23" t="n">
-        <v>734.4185990357234</v>
+        <v>734.4185990357233</v>
       </c>
       <c r="P23" t="n">
-        <v>626.8092829021869</v>
+        <v>626.8092829021867</v>
       </c>
       <c r="Q23" t="n">
-        <v>470.7076673464488</v>
+        <v>470.7076673464487</v>
       </c>
       <c r="R23" t="n">
-        <v>273.8071374004364</v>
+        <v>273.8071374004363</v>
       </c>
       <c r="S23" t="n">
-        <v>99.32748522098095</v>
+        <v>99.32748522098092</v>
       </c>
       <c r="T23" t="n">
         <v>19.0809025366909</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3487086700023463</v>
+        <v>0.3487086700023462</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,10 +32780,10 @@
         <v>2.332194837167817</v>
       </c>
       <c r="H24" t="n">
-        <v>22.5240922431734</v>
+        <v>22.52409224317339</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29705908669898</v>
+        <v>80.29705908669895</v>
       </c>
       <c r="J24" t="n">
         <v>220.3412674887366</v>
@@ -32792,31 +32792,31 @@
         <v>376.5983215789803</v>
       </c>
       <c r="L24" t="n">
-        <v>506.3829184824245</v>
+        <v>506.3829184824244</v>
       </c>
       <c r="M24" t="n">
-        <v>590.9249813297578</v>
+        <v>590.9249813297577</v>
       </c>
       <c r="N24" t="n">
-        <v>606.5650072333964</v>
+        <v>606.5650072333963</v>
       </c>
       <c r="O24" t="n">
-        <v>554.8884795256253</v>
+        <v>554.8884795256251</v>
       </c>
       <c r="P24" t="n">
-        <v>445.3469246518089</v>
+        <v>445.3469246518088</v>
       </c>
       <c r="Q24" t="n">
-        <v>297.702625179527</v>
+        <v>297.7026251795269</v>
       </c>
       <c r="R24" t="n">
         <v>144.8006583988931</v>
       </c>
       <c r="S24" t="n">
-        <v>43.31949620791973</v>
+        <v>43.31949620791972</v>
       </c>
       <c r="T24" t="n">
-        <v>9.400381821742206</v>
+        <v>9.400381821742204</v>
       </c>
       <c r="U24" t="n">
         <v>0.1534338708663038</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.955233807979346</v>
+        <v>1.955233807979345</v>
       </c>
       <c r="H25" t="n">
-        <v>17.38380603821638</v>
+        <v>17.38380603821637</v>
       </c>
       <c r="I25" t="n">
-        <v>58.79921306177889</v>
+        <v>58.79921306177888</v>
       </c>
       <c r="J25" t="n">
         <v>138.2350302241397</v>
@@ -32877,25 +32877,25 @@
         <v>306.4917868271623</v>
       </c>
       <c r="N25" t="n">
-        <v>299.2040971792396</v>
+        <v>299.2040971792395</v>
       </c>
       <c r="O25" t="n">
         <v>276.3634113314807</v>
       </c>
       <c r="P25" t="n">
-        <v>236.4766416487019</v>
+        <v>236.4766416487018</v>
       </c>
       <c r="Q25" t="n">
         <v>163.7241691390705</v>
       </c>
       <c r="R25" t="n">
-        <v>87.91442194787129</v>
+        <v>87.91442194787128</v>
       </c>
       <c r="S25" t="n">
-        <v>34.07439281724005</v>
+        <v>34.07439281724004</v>
       </c>
       <c r="T25" t="n">
-        <v>8.354180815911748</v>
+        <v>8.354180815911747</v>
       </c>
       <c r="U25" t="n">
         <v>0.1066491167988735</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.358858375029329</v>
+        <v>4.358858375029328</v>
       </c>
       <c r="H26" t="n">
-        <v>44.64015833326913</v>
+        <v>44.64015833326912</v>
       </c>
       <c r="I26" t="n">
-        <v>168.0448875033184</v>
+        <v>168.0448875033183</v>
       </c>
       <c r="J26" t="n">
-        <v>369.9526560076459</v>
+        <v>369.9526560076458</v>
       </c>
       <c r="K26" t="n">
-        <v>554.4631310226375</v>
+        <v>554.4631310226374</v>
       </c>
       <c r="L26" t="n">
-        <v>687.8605430174415</v>
+        <v>687.8605430174413</v>
       </c>
       <c r="M26" t="n">
-        <v>765.3773906443693</v>
+        <v>765.3773906443691</v>
       </c>
       <c r="N26" t="n">
-        <v>777.7619970024215</v>
+        <v>777.7619970024213</v>
       </c>
       <c r="O26" t="n">
-        <v>734.4185990357234</v>
+        <v>734.4185990357233</v>
       </c>
       <c r="P26" t="n">
-        <v>626.8092829021869</v>
+        <v>626.8092829021867</v>
       </c>
       <c r="Q26" t="n">
-        <v>470.7076673464488</v>
+        <v>470.7076673464487</v>
       </c>
       <c r="R26" t="n">
-        <v>273.8071374004364</v>
+        <v>273.8071374004363</v>
       </c>
       <c r="S26" t="n">
-        <v>99.32748522098095</v>
+        <v>99.32748522098092</v>
       </c>
       <c r="T26" t="n">
         <v>19.0809025366909</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3487086700023463</v>
+        <v>0.3487086700023462</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,10 +33017,10 @@
         <v>2.332194837167817</v>
       </c>
       <c r="H27" t="n">
-        <v>22.5240922431734</v>
+        <v>22.52409224317339</v>
       </c>
       <c r="I27" t="n">
-        <v>80.29705908669898</v>
+        <v>80.29705908669895</v>
       </c>
       <c r="J27" t="n">
         <v>220.3412674887366</v>
@@ -33029,31 +33029,31 @@
         <v>376.5983215789803</v>
       </c>
       <c r="L27" t="n">
-        <v>506.3829184824245</v>
+        <v>506.3829184824244</v>
       </c>
       <c r="M27" t="n">
-        <v>590.9249813297578</v>
+        <v>590.9249813297577</v>
       </c>
       <c r="N27" t="n">
-        <v>606.5650072333964</v>
+        <v>606.5650072333963</v>
       </c>
       <c r="O27" t="n">
-        <v>554.8884795256253</v>
+        <v>554.8884795256251</v>
       </c>
       <c r="P27" t="n">
-        <v>445.3469246518089</v>
+        <v>445.3469246518088</v>
       </c>
       <c r="Q27" t="n">
-        <v>297.702625179527</v>
+        <v>297.7026251795269</v>
       </c>
       <c r="R27" t="n">
         <v>144.8006583988931</v>
       </c>
       <c r="S27" t="n">
-        <v>43.31949620791973</v>
+        <v>43.31949620791972</v>
       </c>
       <c r="T27" t="n">
-        <v>9.400381821742206</v>
+        <v>9.400381821742204</v>
       </c>
       <c r="U27" t="n">
         <v>0.1534338708663038</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.955233807979346</v>
+        <v>1.955233807979345</v>
       </c>
       <c r="H28" t="n">
-        <v>17.38380603821638</v>
+        <v>17.38380603821637</v>
       </c>
       <c r="I28" t="n">
-        <v>58.79921306177889</v>
+        <v>58.79921306177888</v>
       </c>
       <c r="J28" t="n">
         <v>138.2350302241397</v>
@@ -33114,25 +33114,25 @@
         <v>306.4917868271623</v>
       </c>
       <c r="N28" t="n">
-        <v>299.2040971792396</v>
+        <v>299.2040971792395</v>
       </c>
       <c r="O28" t="n">
         <v>276.3634113314807</v>
       </c>
       <c r="P28" t="n">
-        <v>236.4766416487019</v>
+        <v>236.4766416487018</v>
       </c>
       <c r="Q28" t="n">
         <v>163.7241691390705</v>
       </c>
       <c r="R28" t="n">
-        <v>87.91442194787129</v>
+        <v>87.91442194787128</v>
       </c>
       <c r="S28" t="n">
-        <v>34.07439281724005</v>
+        <v>34.07439281724004</v>
       </c>
       <c r="T28" t="n">
-        <v>8.354180815911748</v>
+        <v>8.354180815911747</v>
       </c>
       <c r="U28" t="n">
         <v>0.1066491167988735</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.358858375029329</v>
+        <v>4.358858375029328</v>
       </c>
       <c r="H29" t="n">
-        <v>44.64015833326913</v>
+        <v>44.64015833326912</v>
       </c>
       <c r="I29" t="n">
-        <v>168.0448875033184</v>
+        <v>168.0448875033183</v>
       </c>
       <c r="J29" t="n">
-        <v>369.9526560076459</v>
+        <v>369.9526560076458</v>
       </c>
       <c r="K29" t="n">
-        <v>554.4631310226375</v>
+        <v>554.4631310226374</v>
       </c>
       <c r="L29" t="n">
-        <v>687.8605430174415</v>
+        <v>687.8605430174413</v>
       </c>
       <c r="M29" t="n">
-        <v>765.3773906443693</v>
+        <v>765.3773906443691</v>
       </c>
       <c r="N29" t="n">
-        <v>777.7619970024215</v>
+        <v>777.7619970024213</v>
       </c>
       <c r="O29" t="n">
-        <v>734.4185990357234</v>
+        <v>734.4185990357233</v>
       </c>
       <c r="P29" t="n">
-        <v>626.8092829021869</v>
+        <v>626.8092829021867</v>
       </c>
       <c r="Q29" t="n">
-        <v>470.7076673464488</v>
+        <v>470.7076673464487</v>
       </c>
       <c r="R29" t="n">
-        <v>273.8071374004364</v>
+        <v>273.8071374004363</v>
       </c>
       <c r="S29" t="n">
-        <v>99.32748522098095</v>
+        <v>99.32748522098092</v>
       </c>
       <c r="T29" t="n">
         <v>19.0809025366909</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3487086700023463</v>
+        <v>0.3487086700023462</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33254,10 @@
         <v>2.332194837167817</v>
       </c>
       <c r="H30" t="n">
-        <v>22.5240922431734</v>
+        <v>22.52409224317339</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29705908669898</v>
+        <v>80.29705908669895</v>
       </c>
       <c r="J30" t="n">
         <v>220.3412674887366</v>
@@ -33266,31 +33266,31 @@
         <v>376.5983215789803</v>
       </c>
       <c r="L30" t="n">
-        <v>506.3829184824245</v>
+        <v>506.3829184824244</v>
       </c>
       <c r="M30" t="n">
-        <v>590.9249813297578</v>
+        <v>590.9249813297577</v>
       </c>
       <c r="N30" t="n">
-        <v>606.5650072333964</v>
+        <v>606.5650072333963</v>
       </c>
       <c r="O30" t="n">
-        <v>554.8884795256253</v>
+        <v>554.8884795256251</v>
       </c>
       <c r="P30" t="n">
-        <v>445.3469246518089</v>
+        <v>445.3469246518088</v>
       </c>
       <c r="Q30" t="n">
-        <v>297.702625179527</v>
+        <v>297.7026251795269</v>
       </c>
       <c r="R30" t="n">
         <v>144.8006583988931</v>
       </c>
       <c r="S30" t="n">
-        <v>43.31949620791973</v>
+        <v>43.31949620791972</v>
       </c>
       <c r="T30" t="n">
-        <v>9.400381821742206</v>
+        <v>9.400381821742204</v>
       </c>
       <c r="U30" t="n">
         <v>0.1534338708663038</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.955233807979346</v>
+        <v>1.955233807979345</v>
       </c>
       <c r="H31" t="n">
-        <v>17.38380603821638</v>
+        <v>17.38380603821637</v>
       </c>
       <c r="I31" t="n">
-        <v>58.79921306177889</v>
+        <v>58.79921306177888</v>
       </c>
       <c r="J31" t="n">
         <v>138.2350302241397</v>
@@ -33351,25 +33351,25 @@
         <v>306.4917868271623</v>
       </c>
       <c r="N31" t="n">
-        <v>299.2040971792396</v>
+        <v>299.2040971792395</v>
       </c>
       <c r="O31" t="n">
         <v>276.3634113314807</v>
       </c>
       <c r="P31" t="n">
-        <v>236.4766416487019</v>
+        <v>236.4766416487018</v>
       </c>
       <c r="Q31" t="n">
         <v>163.7241691390705</v>
       </c>
       <c r="R31" t="n">
-        <v>87.91442194787129</v>
+        <v>87.91442194787128</v>
       </c>
       <c r="S31" t="n">
-        <v>34.07439281724005</v>
+        <v>34.07439281724004</v>
       </c>
       <c r="T31" t="n">
-        <v>8.354180815911748</v>
+        <v>8.354180815911747</v>
       </c>
       <c r="U31" t="n">
         <v>0.1066491167988735</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.358858375029329</v>
+        <v>4.358858375029328</v>
       </c>
       <c r="H32" t="n">
-        <v>44.64015833326913</v>
+        <v>44.64015833326912</v>
       </c>
       <c r="I32" t="n">
-        <v>168.0448875033184</v>
+        <v>168.0448875033183</v>
       </c>
       <c r="J32" t="n">
-        <v>369.9526560076459</v>
+        <v>369.9526560076458</v>
       </c>
       <c r="K32" t="n">
-        <v>554.4631310226375</v>
+        <v>554.4631310226374</v>
       </c>
       <c r="L32" t="n">
-        <v>687.8605430174415</v>
+        <v>687.8605430174413</v>
       </c>
       <c r="M32" t="n">
-        <v>765.3773906443693</v>
+        <v>765.3773906443691</v>
       </c>
       <c r="N32" t="n">
-        <v>777.7619970024215</v>
+        <v>777.7619970024213</v>
       </c>
       <c r="O32" t="n">
-        <v>734.4185990357234</v>
+        <v>734.4185990357233</v>
       </c>
       <c r="P32" t="n">
-        <v>626.8092829021869</v>
+        <v>626.8092829021867</v>
       </c>
       <c r="Q32" t="n">
-        <v>470.7076673464488</v>
+        <v>470.7076673464487</v>
       </c>
       <c r="R32" t="n">
-        <v>273.8071374004364</v>
+        <v>273.8071374004363</v>
       </c>
       <c r="S32" t="n">
-        <v>99.32748522098095</v>
+        <v>99.32748522098092</v>
       </c>
       <c r="T32" t="n">
         <v>19.0809025366909</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3487086700023463</v>
+        <v>0.3487086700023462</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,10 +33491,10 @@
         <v>2.332194837167817</v>
       </c>
       <c r="H33" t="n">
-        <v>22.5240922431734</v>
+        <v>22.52409224317339</v>
       </c>
       <c r="I33" t="n">
-        <v>80.29705908669898</v>
+        <v>80.29705908669895</v>
       </c>
       <c r="J33" t="n">
         <v>220.3412674887366</v>
@@ -33503,31 +33503,31 @@
         <v>376.5983215789803</v>
       </c>
       <c r="L33" t="n">
-        <v>506.3829184824245</v>
+        <v>506.3829184824244</v>
       </c>
       <c r="M33" t="n">
-        <v>590.9249813297578</v>
+        <v>590.9249813297577</v>
       </c>
       <c r="N33" t="n">
-        <v>606.5650072333964</v>
+        <v>606.5650072333963</v>
       </c>
       <c r="O33" t="n">
-        <v>554.8884795256253</v>
+        <v>554.8884795256251</v>
       </c>
       <c r="P33" t="n">
-        <v>445.3469246518089</v>
+        <v>445.3469246518088</v>
       </c>
       <c r="Q33" t="n">
-        <v>297.702625179527</v>
+        <v>297.7026251795269</v>
       </c>
       <c r="R33" t="n">
         <v>144.8006583988931</v>
       </c>
       <c r="S33" t="n">
-        <v>43.31949620791973</v>
+        <v>43.31949620791972</v>
       </c>
       <c r="T33" t="n">
-        <v>9.400381821742206</v>
+        <v>9.400381821742204</v>
       </c>
       <c r="U33" t="n">
         <v>0.1534338708663038</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.955233807979346</v>
+        <v>1.955233807979345</v>
       </c>
       <c r="H34" t="n">
-        <v>17.38380603821638</v>
+        <v>17.38380603821637</v>
       </c>
       <c r="I34" t="n">
-        <v>58.79921306177889</v>
+        <v>58.79921306177888</v>
       </c>
       <c r="J34" t="n">
         <v>138.2350302241397</v>
@@ -33588,25 +33588,25 @@
         <v>306.4917868271623</v>
       </c>
       <c r="N34" t="n">
-        <v>299.2040971792396</v>
+        <v>299.2040971792395</v>
       </c>
       <c r="O34" t="n">
         <v>276.3634113314807</v>
       </c>
       <c r="P34" t="n">
-        <v>236.4766416487019</v>
+        <v>236.4766416487018</v>
       </c>
       <c r="Q34" t="n">
         <v>163.7241691390705</v>
       </c>
       <c r="R34" t="n">
-        <v>87.91442194787129</v>
+        <v>87.91442194787128</v>
       </c>
       <c r="S34" t="n">
-        <v>34.07439281724005</v>
+        <v>34.07439281724004</v>
       </c>
       <c r="T34" t="n">
-        <v>8.354180815911748</v>
+        <v>8.354180815911747</v>
       </c>
       <c r="U34" t="n">
         <v>0.1066491167988735</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.358858375029329</v>
+        <v>4.358858375029328</v>
       </c>
       <c r="H35" t="n">
-        <v>44.64015833326913</v>
+        <v>44.64015833326912</v>
       </c>
       <c r="I35" t="n">
-        <v>168.0448875033184</v>
+        <v>168.0448875033183</v>
       </c>
       <c r="J35" t="n">
-        <v>369.9526560076459</v>
+        <v>369.9526560076458</v>
       </c>
       <c r="K35" t="n">
-        <v>554.4631310226375</v>
+        <v>554.4631310226374</v>
       </c>
       <c r="L35" t="n">
-        <v>687.8605430174415</v>
+        <v>687.8605430174413</v>
       </c>
       <c r="M35" t="n">
-        <v>765.3773906443693</v>
+        <v>765.3773906443691</v>
       </c>
       <c r="N35" t="n">
-        <v>777.7619970024215</v>
+        <v>777.7619970024213</v>
       </c>
       <c r="O35" t="n">
-        <v>734.4185990357234</v>
+        <v>734.4185990357233</v>
       </c>
       <c r="P35" t="n">
-        <v>626.8092829021869</v>
+        <v>626.8092829021867</v>
       </c>
       <c r="Q35" t="n">
-        <v>470.7076673464488</v>
+        <v>470.7076673464487</v>
       </c>
       <c r="R35" t="n">
-        <v>273.8071374004364</v>
+        <v>273.8071374004363</v>
       </c>
       <c r="S35" t="n">
-        <v>99.32748522098095</v>
+        <v>99.32748522098092</v>
       </c>
       <c r="T35" t="n">
         <v>19.0809025366909</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3487086700023463</v>
+        <v>0.3487086700023462</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,10 +33728,10 @@
         <v>2.332194837167817</v>
       </c>
       <c r="H36" t="n">
-        <v>22.5240922431734</v>
+        <v>22.52409224317339</v>
       </c>
       <c r="I36" t="n">
-        <v>80.29705908669898</v>
+        <v>80.29705908669895</v>
       </c>
       <c r="J36" t="n">
         <v>220.3412674887366</v>
@@ -33740,31 +33740,31 @@
         <v>376.5983215789803</v>
       </c>
       <c r="L36" t="n">
-        <v>506.3829184824245</v>
+        <v>506.3829184824244</v>
       </c>
       <c r="M36" t="n">
-        <v>590.9249813297578</v>
+        <v>590.9249813297577</v>
       </c>
       <c r="N36" t="n">
-        <v>606.5650072333964</v>
+        <v>606.5650072333963</v>
       </c>
       <c r="O36" t="n">
-        <v>554.8884795256253</v>
+        <v>554.8884795256251</v>
       </c>
       <c r="P36" t="n">
-        <v>445.3469246518089</v>
+        <v>445.3469246518088</v>
       </c>
       <c r="Q36" t="n">
-        <v>297.702625179527</v>
+        <v>297.7026251795269</v>
       </c>
       <c r="R36" t="n">
         <v>144.8006583988931</v>
       </c>
       <c r="S36" t="n">
-        <v>43.31949620791973</v>
+        <v>43.31949620791972</v>
       </c>
       <c r="T36" t="n">
-        <v>9.400381821742206</v>
+        <v>9.400381821742204</v>
       </c>
       <c r="U36" t="n">
         <v>0.1534338708663038</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.955233807979346</v>
+        <v>1.955233807979345</v>
       </c>
       <c r="H37" t="n">
-        <v>17.38380603821638</v>
+        <v>17.38380603821637</v>
       </c>
       <c r="I37" t="n">
-        <v>58.79921306177889</v>
+        <v>58.79921306177888</v>
       </c>
       <c r="J37" t="n">
         <v>138.2350302241397</v>
@@ -33825,25 +33825,25 @@
         <v>306.4917868271623</v>
       </c>
       <c r="N37" t="n">
-        <v>299.2040971792396</v>
+        <v>299.2040971792395</v>
       </c>
       <c r="O37" t="n">
         <v>276.3634113314807</v>
       </c>
       <c r="P37" t="n">
-        <v>236.4766416487019</v>
+        <v>236.4766416487018</v>
       </c>
       <c r="Q37" t="n">
         <v>163.7241691390705</v>
       </c>
       <c r="R37" t="n">
-        <v>87.91442194787129</v>
+        <v>87.91442194787128</v>
       </c>
       <c r="S37" t="n">
-        <v>34.07439281724005</v>
+        <v>34.07439281724004</v>
       </c>
       <c r="T37" t="n">
-        <v>8.354180815911748</v>
+        <v>8.354180815911747</v>
       </c>
       <c r="U37" t="n">
         <v>0.1066491167988735</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.358858375029329</v>
+        <v>4.358858375029328</v>
       </c>
       <c r="H38" t="n">
-        <v>44.64015833326913</v>
+        <v>44.64015833326912</v>
       </c>
       <c r="I38" t="n">
-        <v>168.0448875033184</v>
+        <v>168.0448875033183</v>
       </c>
       <c r="J38" t="n">
-        <v>369.9526560076459</v>
+        <v>369.9526560076458</v>
       </c>
       <c r="K38" t="n">
-        <v>554.4631310226375</v>
+        <v>554.4631310226374</v>
       </c>
       <c r="L38" t="n">
-        <v>687.8605430174415</v>
+        <v>687.8605430174413</v>
       </c>
       <c r="M38" t="n">
-        <v>765.3773906443693</v>
+        <v>765.3773906443691</v>
       </c>
       <c r="N38" t="n">
-        <v>777.7619970024215</v>
+        <v>777.7619970024213</v>
       </c>
       <c r="O38" t="n">
-        <v>734.4185990357234</v>
+        <v>734.4185990357233</v>
       </c>
       <c r="P38" t="n">
-        <v>626.8092829021869</v>
+        <v>626.8092829021867</v>
       </c>
       <c r="Q38" t="n">
-        <v>470.7076673464488</v>
+        <v>470.7076673464487</v>
       </c>
       <c r="R38" t="n">
-        <v>273.8071374004364</v>
+        <v>273.8071374004363</v>
       </c>
       <c r="S38" t="n">
-        <v>99.32748522098095</v>
+        <v>99.32748522098092</v>
       </c>
       <c r="T38" t="n">
         <v>19.0809025366909</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3487086700023463</v>
+        <v>0.3487086700023462</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,10 +33965,10 @@
         <v>2.332194837167817</v>
       </c>
       <c r="H39" t="n">
-        <v>22.5240922431734</v>
+        <v>22.52409224317339</v>
       </c>
       <c r="I39" t="n">
-        <v>80.29705908669898</v>
+        <v>80.29705908669895</v>
       </c>
       <c r="J39" t="n">
         <v>220.3412674887366</v>
@@ -33977,31 +33977,31 @@
         <v>376.5983215789803</v>
       </c>
       <c r="L39" t="n">
-        <v>506.3829184824245</v>
+        <v>506.3829184824244</v>
       </c>
       <c r="M39" t="n">
-        <v>590.9249813297578</v>
+        <v>590.9249813297577</v>
       </c>
       <c r="N39" t="n">
-        <v>606.5650072333964</v>
+        <v>606.5650072333963</v>
       </c>
       <c r="O39" t="n">
-        <v>554.8884795256253</v>
+        <v>554.8884795256251</v>
       </c>
       <c r="P39" t="n">
-        <v>445.3469246518089</v>
+        <v>445.3469246518088</v>
       </c>
       <c r="Q39" t="n">
-        <v>297.702625179527</v>
+        <v>297.7026251795269</v>
       </c>
       <c r="R39" t="n">
         <v>144.8006583988931</v>
       </c>
       <c r="S39" t="n">
-        <v>43.31949620791973</v>
+        <v>43.31949620791972</v>
       </c>
       <c r="T39" t="n">
-        <v>9.400381821742206</v>
+        <v>9.400381821742204</v>
       </c>
       <c r="U39" t="n">
         <v>0.1534338708663038</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.955233807979346</v>
+        <v>1.955233807979345</v>
       </c>
       <c r="H40" t="n">
-        <v>17.38380603821638</v>
+        <v>17.38380603821637</v>
       </c>
       <c r="I40" t="n">
-        <v>58.79921306177889</v>
+        <v>58.79921306177888</v>
       </c>
       <c r="J40" t="n">
         <v>138.2350302241397</v>
@@ -34062,25 +34062,25 @@
         <v>306.4917868271623</v>
       </c>
       <c r="N40" t="n">
-        <v>299.2040971792396</v>
+        <v>299.2040971792395</v>
       </c>
       <c r="O40" t="n">
         <v>276.3634113314807</v>
       </c>
       <c r="P40" t="n">
-        <v>236.4766416487019</v>
+        <v>236.4766416487018</v>
       </c>
       <c r="Q40" t="n">
         <v>163.7241691390705</v>
       </c>
       <c r="R40" t="n">
-        <v>87.91442194787129</v>
+        <v>87.91442194787128</v>
       </c>
       <c r="S40" t="n">
-        <v>34.07439281724005</v>
+        <v>34.07439281724004</v>
       </c>
       <c r="T40" t="n">
-        <v>8.354180815911748</v>
+        <v>8.354180815911747</v>
       </c>
       <c r="U40" t="n">
         <v>0.1066491167988735</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.358858375029329</v>
+        <v>4.358858375029328</v>
       </c>
       <c r="H41" t="n">
-        <v>44.64015833326913</v>
+        <v>44.64015833326912</v>
       </c>
       <c r="I41" t="n">
-        <v>168.0448875033184</v>
+        <v>168.0448875033183</v>
       </c>
       <c r="J41" t="n">
-        <v>369.9526560076459</v>
+        <v>369.9526560076458</v>
       </c>
       <c r="K41" t="n">
-        <v>554.4631310226375</v>
+        <v>554.4631310226374</v>
       </c>
       <c r="L41" t="n">
-        <v>687.8605430174415</v>
+        <v>687.8605430174413</v>
       </c>
       <c r="M41" t="n">
-        <v>765.3773906443693</v>
+        <v>765.3773906443691</v>
       </c>
       <c r="N41" t="n">
-        <v>777.7619970024215</v>
+        <v>777.7619970024213</v>
       </c>
       <c r="O41" t="n">
-        <v>734.4185990357234</v>
+        <v>734.4185990357233</v>
       </c>
       <c r="P41" t="n">
-        <v>626.8092829021869</v>
+        <v>626.8092829021867</v>
       </c>
       <c r="Q41" t="n">
-        <v>470.7076673464488</v>
+        <v>470.7076673464487</v>
       </c>
       <c r="R41" t="n">
-        <v>273.8071374004364</v>
+        <v>273.8071374004363</v>
       </c>
       <c r="S41" t="n">
-        <v>99.32748522098095</v>
+        <v>99.32748522098092</v>
       </c>
       <c r="T41" t="n">
         <v>19.0809025366909</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3487086700023463</v>
+        <v>0.3487086700023462</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,10 +34202,10 @@
         <v>2.332194837167817</v>
       </c>
       <c r="H42" t="n">
-        <v>22.5240922431734</v>
+        <v>22.52409224317339</v>
       </c>
       <c r="I42" t="n">
-        <v>80.29705908669898</v>
+        <v>80.29705908669895</v>
       </c>
       <c r="J42" t="n">
         <v>220.3412674887366</v>
@@ -34214,31 +34214,31 @@
         <v>376.5983215789803</v>
       </c>
       <c r="L42" t="n">
-        <v>506.3829184824245</v>
+        <v>506.3829184824244</v>
       </c>
       <c r="M42" t="n">
-        <v>590.9249813297578</v>
+        <v>590.9249813297577</v>
       </c>
       <c r="N42" t="n">
-        <v>606.5650072333964</v>
+        <v>606.5650072333963</v>
       </c>
       <c r="O42" t="n">
-        <v>554.8884795256253</v>
+        <v>554.8884795256251</v>
       </c>
       <c r="P42" t="n">
-        <v>445.3469246518089</v>
+        <v>445.3469246518088</v>
       </c>
       <c r="Q42" t="n">
-        <v>297.702625179527</v>
+        <v>297.7026251795269</v>
       </c>
       <c r="R42" t="n">
         <v>144.8006583988931</v>
       </c>
       <c r="S42" t="n">
-        <v>43.31949620791973</v>
+        <v>43.31949620791972</v>
       </c>
       <c r="T42" t="n">
-        <v>9.400381821742206</v>
+        <v>9.400381821742204</v>
       </c>
       <c r="U42" t="n">
         <v>0.1534338708663038</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.955233807979346</v>
+        <v>1.955233807979345</v>
       </c>
       <c r="H43" t="n">
-        <v>17.38380603821638</v>
+        <v>17.38380603821637</v>
       </c>
       <c r="I43" t="n">
-        <v>58.79921306177889</v>
+        <v>58.79921306177888</v>
       </c>
       <c r="J43" t="n">
         <v>138.2350302241397</v>
@@ -34299,25 +34299,25 @@
         <v>306.4917868271623</v>
       </c>
       <c r="N43" t="n">
-        <v>299.2040971792396</v>
+        <v>299.2040971792395</v>
       </c>
       <c r="O43" t="n">
         <v>276.3634113314807</v>
       </c>
       <c r="P43" t="n">
-        <v>236.4766416487019</v>
+        <v>236.4766416487018</v>
       </c>
       <c r="Q43" t="n">
         <v>163.7241691390705</v>
       </c>
       <c r="R43" t="n">
-        <v>87.91442194787129</v>
+        <v>87.91442194787128</v>
       </c>
       <c r="S43" t="n">
-        <v>34.07439281724005</v>
+        <v>34.07439281724004</v>
       </c>
       <c r="T43" t="n">
-        <v>8.354180815911748</v>
+        <v>8.354180815911747</v>
       </c>
       <c r="U43" t="n">
         <v>0.1066491167988735</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.358858375029329</v>
+        <v>4.358858375029328</v>
       </c>
       <c r="H44" t="n">
-        <v>44.64015833326913</v>
+        <v>44.64015833326912</v>
       </c>
       <c r="I44" t="n">
-        <v>168.0448875033184</v>
+        <v>168.0448875033183</v>
       </c>
       <c r="J44" t="n">
-        <v>369.9526560076459</v>
+        <v>369.9526560076458</v>
       </c>
       <c r="K44" t="n">
-        <v>554.4631310226375</v>
+        <v>554.4631310226374</v>
       </c>
       <c r="L44" t="n">
-        <v>687.8605430174415</v>
+        <v>687.8605430174413</v>
       </c>
       <c r="M44" t="n">
-        <v>765.3773906443693</v>
+        <v>765.3773906443691</v>
       </c>
       <c r="N44" t="n">
-        <v>777.7619970024215</v>
+        <v>777.7619970024213</v>
       </c>
       <c r="O44" t="n">
-        <v>734.4185990357234</v>
+        <v>734.4185990357233</v>
       </c>
       <c r="P44" t="n">
-        <v>626.8092829021869</v>
+        <v>626.8092829021867</v>
       </c>
       <c r="Q44" t="n">
-        <v>470.7076673464488</v>
+        <v>470.7076673464487</v>
       </c>
       <c r="R44" t="n">
-        <v>273.8071374004364</v>
+        <v>273.8071374004363</v>
       </c>
       <c r="S44" t="n">
-        <v>99.32748522098095</v>
+        <v>99.32748522098092</v>
       </c>
       <c r="T44" t="n">
         <v>19.0809025366909</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3487086700023463</v>
+        <v>0.3487086700023462</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,10 +34439,10 @@
         <v>2.332194837167817</v>
       </c>
       <c r="H45" t="n">
-        <v>22.5240922431734</v>
+        <v>22.52409224317339</v>
       </c>
       <c r="I45" t="n">
-        <v>80.29705908669898</v>
+        <v>80.29705908669895</v>
       </c>
       <c r="J45" t="n">
         <v>220.3412674887366</v>
@@ -34451,31 +34451,31 @@
         <v>376.5983215789803</v>
       </c>
       <c r="L45" t="n">
-        <v>506.3829184824245</v>
+        <v>506.3829184824244</v>
       </c>
       <c r="M45" t="n">
-        <v>590.9249813297578</v>
+        <v>590.9249813297577</v>
       </c>
       <c r="N45" t="n">
-        <v>606.5650072333964</v>
+        <v>606.5650072333963</v>
       </c>
       <c r="O45" t="n">
-        <v>554.8884795256253</v>
+        <v>554.8884795256251</v>
       </c>
       <c r="P45" t="n">
-        <v>445.3469246518089</v>
+        <v>445.3469246518088</v>
       </c>
       <c r="Q45" t="n">
-        <v>297.702625179527</v>
+        <v>297.7026251795269</v>
       </c>
       <c r="R45" t="n">
         <v>144.8006583988931</v>
       </c>
       <c r="S45" t="n">
-        <v>43.31949620791973</v>
+        <v>43.31949620791972</v>
       </c>
       <c r="T45" t="n">
-        <v>9.400381821742206</v>
+        <v>9.400381821742204</v>
       </c>
       <c r="U45" t="n">
         <v>0.1534338708663038</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.955233807979346</v>
+        <v>1.955233807979345</v>
       </c>
       <c r="H46" t="n">
-        <v>17.38380603821638</v>
+        <v>17.38380603821637</v>
       </c>
       <c r="I46" t="n">
-        <v>58.79921306177889</v>
+        <v>58.79921306177888</v>
       </c>
       <c r="J46" t="n">
         <v>138.2350302241397</v>
@@ -34536,25 +34536,25 @@
         <v>306.4917868271623</v>
       </c>
       <c r="N46" t="n">
-        <v>299.2040971792396</v>
+        <v>299.2040971792395</v>
       </c>
       <c r="O46" t="n">
         <v>276.3634113314807</v>
       </c>
       <c r="P46" t="n">
-        <v>236.4766416487019</v>
+        <v>236.4766416487018</v>
       </c>
       <c r="Q46" t="n">
         <v>163.7241691390705</v>
       </c>
       <c r="R46" t="n">
-        <v>87.91442194787129</v>
+        <v>87.91442194787128</v>
       </c>
       <c r="S46" t="n">
-        <v>34.07439281724005</v>
+        <v>34.07439281724004</v>
       </c>
       <c r="T46" t="n">
-        <v>8.354180815911748</v>
+        <v>8.354180815911747</v>
       </c>
       <c r="U46" t="n">
         <v>0.1066491167988735</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>188.9067514809596</v>
+        <v>188.9067514809595</v>
       </c>
       <c r="K11" t="n">
-        <v>334.373279977657</v>
+        <v>334.3732799776569</v>
       </c>
       <c r="L11" t="n">
-        <v>452.0941280474543</v>
+        <v>452.094128047454</v>
       </c>
       <c r="M11" t="n">
-        <v>535.0311574170966</v>
+        <v>535.0311574170964</v>
       </c>
       <c r="N11" t="n">
-        <v>548.3489334058306</v>
+        <v>548.3489334058304</v>
       </c>
       <c r="O11" t="n">
-        <v>504.3203876140367</v>
+        <v>504.3203876140366</v>
       </c>
       <c r="P11" t="n">
-        <v>395.5762871469173</v>
+        <v>395.5762871469172</v>
       </c>
       <c r="Q11" t="n">
-        <v>248.4019774719993</v>
+        <v>248.4019774719992</v>
       </c>
       <c r="R11" t="n">
-        <v>58.22159958630425</v>
+        <v>58.22159958630419</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>93.50364082206994</v>
+        <v>93.50364082206991</v>
       </c>
       <c r="K12" t="n">
-        <v>238.7568826046214</v>
+        <v>247.3895033350439</v>
       </c>
       <c r="L12" t="n">
-        <v>367.8285387025504</v>
+        <v>367.8285387025502</v>
       </c>
       <c r="M12" t="n">
-        <v>448.7909474077395</v>
+        <v>448.7909474077393</v>
       </c>
       <c r="N12" t="n">
-        <v>475.2232951500631</v>
+        <v>475.223295150063</v>
       </c>
       <c r="O12" t="n">
-        <v>412.2922350811808</v>
+        <v>412.2922350811807</v>
       </c>
       <c r="P12" t="n">
-        <v>320.0051379679005</v>
+        <v>311.3725172374786</v>
       </c>
       <c r="Q12" t="n">
-        <v>157.7208510935055</v>
+        <v>157.7208510935054</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.87585010746696</v>
+        <v>44.87585010746693</v>
       </c>
       <c r="K13" t="n">
-        <v>204.8931269557175</v>
+        <v>204.8931269557174</v>
       </c>
       <c r="L13" t="n">
         <v>318.2799679484455</v>
@@ -35577,16 +35577,16 @@
         <v>346.0756637890029</v>
       </c>
       <c r="N13" t="n">
-        <v>343.3362695584682</v>
+        <v>343.3362695584681</v>
       </c>
       <c r="O13" t="n">
         <v>300.9485392455204</v>
       </c>
       <c r="P13" t="n">
-        <v>233.7552009135954</v>
+        <v>233.7552009135953</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.56212588737613</v>
+        <v>77.5621258873761</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>188.9067514809596</v>
+        <v>188.9067514809595</v>
       </c>
       <c r="K14" t="n">
-        <v>334.373279977657</v>
+        <v>658.5186925488216</v>
       </c>
       <c r="L14" t="n">
-        <v>452.0941280474543</v>
+        <v>731.0340341734424</v>
       </c>
       <c r="M14" t="n">
-        <v>535.0311574170966</v>
+        <v>535.0311574170964</v>
       </c>
       <c r="N14" t="n">
-        <v>829.6355439315025</v>
+        <v>548.3489334058304</v>
       </c>
       <c r="O14" t="n">
-        <v>504.3203876140367</v>
+        <v>504.3203876140366</v>
       </c>
       <c r="P14" t="n">
-        <v>717.3749953183999</v>
+        <v>395.5762871469172</v>
       </c>
       <c r="Q14" t="n">
-        <v>248.4019774719993</v>
+        <v>248.4019774719992</v>
       </c>
       <c r="R14" t="n">
-        <v>58.22159958630425</v>
+        <v>58.22159958630419</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>93.50364082206994</v>
+        <v>93.50364082206991</v>
       </c>
       <c r="K15" t="n">
-        <v>238.7568826046214</v>
+        <v>238.7568826046213</v>
       </c>
       <c r="L15" t="n">
-        <v>367.8285387025504</v>
+        <v>367.8285387025502</v>
       </c>
       <c r="M15" t="n">
-        <v>448.7909474077395</v>
+        <v>448.7909474077393</v>
       </c>
       <c r="N15" t="n">
-        <v>475.2232951500631</v>
+        <v>475.223295150063</v>
       </c>
       <c r="O15" t="n">
-        <v>412.2922350811808</v>
+        <v>412.2922350811807</v>
       </c>
       <c r="P15" t="n">
-        <v>320.0051379679</v>
+        <v>311.3725172374786</v>
       </c>
       <c r="Q15" t="n">
-        <v>157.7208510935055</v>
+        <v>166.3534718239281</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.87585010746696</v>
+        <v>44.87585010746693</v>
       </c>
       <c r="K16" t="n">
-        <v>204.8931269557175</v>
+        <v>204.8931269557174</v>
       </c>
       <c r="L16" t="n">
         <v>318.2799679484455</v>
@@ -35814,16 +35814,16 @@
         <v>346.0756637890029</v>
       </c>
       <c r="N16" t="n">
-        <v>343.3362695584682</v>
+        <v>343.3362695584681</v>
       </c>
       <c r="O16" t="n">
         <v>300.9485392455204</v>
       </c>
       <c r="P16" t="n">
-        <v>233.7552009135954</v>
+        <v>233.7552009135953</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.56212588737613</v>
+        <v>77.5621258873761</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>188.9067514809596</v>
+        <v>334.614357591239</v>
       </c>
       <c r="K17" t="n">
-        <v>486.7958328696557</v>
+        <v>334.3732799776569</v>
       </c>
       <c r="L17" t="n">
-        <v>452.0941280474543</v>
+        <v>452.094128047454</v>
       </c>
       <c r="M17" t="n">
-        <v>535.0311574170966</v>
+        <v>535.0311574170964</v>
       </c>
       <c r="N17" t="n">
-        <v>548.3489334058306</v>
+        <v>548.3489334058304</v>
       </c>
       <c r="O17" t="n">
-        <v>885.120568876782</v>
+        <v>504.3203876140366</v>
       </c>
       <c r="P17" t="n">
-        <v>395.5762871469173</v>
+        <v>717.3749953183999</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.716968131904</v>
+        <v>460.7169681319039</v>
       </c>
       <c r="R17" t="n">
-        <v>58.22159958630425</v>
+        <v>123.9380194592866</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>93.50364082206994</v>
+        <v>93.50364082206991</v>
       </c>
       <c r="K18" t="n">
-        <v>238.7568826046214</v>
+        <v>238.7568826046213</v>
       </c>
       <c r="L18" t="n">
-        <v>367.8285387025504</v>
+        <v>367.8285387025502</v>
       </c>
       <c r="M18" t="n">
-        <v>457.4235681381608</v>
+        <v>448.7909474077393</v>
       </c>
       <c r="N18" t="n">
-        <v>475.2232951500631</v>
+        <v>475.223295150063</v>
       </c>
       <c r="O18" t="n">
-        <v>412.2922350811808</v>
+        <v>412.2922350811807</v>
       </c>
       <c r="P18" t="n">
         <v>311.3725172374786</v>
       </c>
       <c r="Q18" t="n">
-        <v>157.7208510935055</v>
+        <v>166.3534718239277</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,13 +36051,13 @@
         <v>393.5002632388612</v>
       </c>
       <c r="N19" t="n">
-        <v>390.7608690083265</v>
+        <v>390.7608690083264</v>
       </c>
       <c r="O19" t="n">
         <v>348.3731386953787</v>
       </c>
       <c r="P19" t="n">
-        <v>281.1798003634537</v>
+        <v>281.1798003634536</v>
       </c>
       <c r="Q19" t="n">
         <v>124.9867253372344</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>188.9067514809596</v>
+        <v>358.0033666530333</v>
       </c>
       <c r="K20" t="n">
-        <v>658.5186925488217</v>
+        <v>334.3732799776569</v>
       </c>
       <c r="L20" t="n">
-        <v>452.0941280474543</v>
+        <v>452.094128047454</v>
       </c>
       <c r="M20" t="n">
-        <v>535.0311574170966</v>
+        <v>535.0311574170964</v>
       </c>
       <c r="N20" t="n">
-        <v>548.3489334058306</v>
+        <v>548.3489334058304</v>
       </c>
       <c r="O20" t="n">
-        <v>504.3203876140367</v>
+        <v>504.3203876140366</v>
       </c>
       <c r="P20" t="n">
-        <v>604.6536087304967</v>
+        <v>693.9859862566058</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.716968131904</v>
+        <v>460.7169681319039</v>
       </c>
       <c r="R20" t="n">
-        <v>58.22159958630425</v>
+        <v>123.9380194592866</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>93.50364082206994</v>
+        <v>93.50364082206991</v>
       </c>
       <c r="K21" t="n">
-        <v>247.3895033350427</v>
+        <v>238.7568826046213</v>
       </c>
       <c r="L21" t="n">
-        <v>367.8285387025504</v>
+        <v>367.8285387025502</v>
       </c>
       <c r="M21" t="n">
-        <v>448.7909474077395</v>
+        <v>448.7909474077393</v>
       </c>
       <c r="N21" t="n">
-        <v>475.2232951500631</v>
+        <v>475.223295150063</v>
       </c>
       <c r="O21" t="n">
-        <v>412.2922350811808</v>
+        <v>412.2922350811807</v>
       </c>
       <c r="P21" t="n">
         <v>311.3725172374786</v>
       </c>
       <c r="Q21" t="n">
-        <v>157.7208510935055</v>
+        <v>166.3534718239277</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.30044955732525</v>
+        <v>92.30044955732522</v>
       </c>
       <c r="K22" t="n">
         <v>252.3177264055757</v>
       </c>
       <c r="L22" t="n">
-        <v>365.7045673983038</v>
+        <v>365.7045673983037</v>
       </c>
       <c r="M22" t="n">
         <v>393.5002632388612</v>
       </c>
       <c r="N22" t="n">
-        <v>390.7608690083267</v>
+        <v>390.7608690083264</v>
       </c>
       <c r="O22" t="n">
         <v>348.3731386953787</v>
       </c>
       <c r="P22" t="n">
-        <v>281.1798003634537</v>
+        <v>281.1798003634544</v>
       </c>
       <c r="Q22" t="n">
         <v>124.9867253372344</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>188.9067514809596</v>
+        <v>358.0033666530333</v>
       </c>
       <c r="K23" t="n">
-        <v>334.373279977657</v>
+        <v>395.5844362544179</v>
       </c>
       <c r="L23" t="n">
-        <v>869.7553425979047</v>
+        <v>452.094128047454</v>
       </c>
       <c r="M23" t="n">
-        <v>862.9076676812947</v>
+        <v>984.5446909099289</v>
       </c>
       <c r="N23" t="n">
-        <v>548.3489334058306</v>
+        <v>548.3489334058304</v>
       </c>
       <c r="O23" t="n">
-        <v>504.3203876140367</v>
+        <v>504.3203876140366</v>
       </c>
       <c r="P23" t="n">
-        <v>395.5762871469173</v>
+        <v>395.5762871469172</v>
       </c>
       <c r="Q23" t="n">
-        <v>248.4019774719993</v>
+        <v>248.4019774719992</v>
       </c>
       <c r="R23" t="n">
-        <v>58.22159958630425</v>
+        <v>123.9380194592866</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>93.50364082206994</v>
+        <v>93.50364082206991</v>
       </c>
       <c r="K24" t="n">
-        <v>238.7568826046214</v>
+        <v>238.7568826046213</v>
       </c>
       <c r="L24" t="n">
-        <v>367.8285387025504</v>
+        <v>367.8285387025502</v>
       </c>
       <c r="M24" t="n">
-        <v>448.7909474077395</v>
+        <v>448.7909474077393</v>
       </c>
       <c r="N24" t="n">
-        <v>475.2232951500631</v>
+        <v>475.223295150063</v>
       </c>
       <c r="O24" t="n">
-        <v>412.2922350811808</v>
+        <v>420.9248558116032</v>
       </c>
       <c r="P24" t="n">
-        <v>320.0051379679</v>
+        <v>311.3725172374786</v>
       </c>
       <c r="Q24" t="n">
-        <v>157.7208510935055</v>
+        <v>157.7208510935054</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.30044955732525</v>
+        <v>92.30044955732522</v>
       </c>
       <c r="K25" t="n">
         <v>252.3177264055757</v>
       </c>
       <c r="L25" t="n">
-        <v>365.7045673983038</v>
+        <v>365.7045673983037</v>
       </c>
       <c r="M25" t="n">
-        <v>393.5002632388614</v>
+        <v>393.5002632388612</v>
       </c>
       <c r="N25" t="n">
         <v>390.7608690083264</v>
@@ -36531,10 +36531,10 @@
         <v>348.3731386953787</v>
       </c>
       <c r="P25" t="n">
-        <v>281.1798003634537</v>
+        <v>281.1798003634536</v>
       </c>
       <c r="Q25" t="n">
-        <v>124.9867253372344</v>
+        <v>124.9867253372353</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>188.9067514809596</v>
+        <v>188.9067514809595</v>
       </c>
       <c r="K26" t="n">
-        <v>334.373279977657</v>
+        <v>658.5186925488216</v>
       </c>
       <c r="L26" t="n">
-        <v>452.0941280474543</v>
+        <v>595.4550297580511</v>
       </c>
       <c r="M26" t="n">
-        <v>984.544690909929</v>
+        <v>535.0311574170964</v>
       </c>
       <c r="N26" t="n">
-        <v>548.3489334058306</v>
+        <v>548.3489334058304</v>
       </c>
       <c r="O26" t="n">
-        <v>504.3203876140367</v>
+        <v>504.3203876140366</v>
       </c>
       <c r="P26" t="n">
-        <v>413.5690679358458</v>
+        <v>395.5762871469172</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.716968131904</v>
+        <v>460.7169681319039</v>
       </c>
       <c r="R26" t="n">
-        <v>123.9380194592867</v>
+        <v>123.9380194592866</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>93.50364082206994</v>
+        <v>102.1362615524925</v>
       </c>
       <c r="K27" t="n">
-        <v>238.7568826046214</v>
+        <v>238.7568826046213</v>
       </c>
       <c r="L27" t="n">
-        <v>367.8285387025504</v>
+        <v>367.8285387025502</v>
       </c>
       <c r="M27" t="n">
-        <v>457.4235681381608</v>
+        <v>448.7909474077393</v>
       </c>
       <c r="N27" t="n">
-        <v>475.2232951500631</v>
+        <v>475.223295150063</v>
       </c>
       <c r="O27" t="n">
-        <v>412.2922350811808</v>
+        <v>412.2922350811807</v>
       </c>
       <c r="P27" t="n">
         <v>311.3725172374786</v>
       </c>
       <c r="Q27" t="n">
-        <v>157.7208510935055</v>
+        <v>157.7208510935054</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.30044955732525</v>
+        <v>92.30044955732522</v>
       </c>
       <c r="K28" t="n">
         <v>252.3177264055757</v>
       </c>
       <c r="L28" t="n">
-        <v>365.7045673983038</v>
+        <v>365.7045673983037</v>
       </c>
       <c r="M28" t="n">
         <v>393.5002632388612</v>
@@ -36768,7 +36768,7 @@
         <v>348.3731386953787</v>
       </c>
       <c r="P28" t="n">
-        <v>281.1798003634537</v>
+        <v>281.1798003634536</v>
       </c>
       <c r="Q28" t="n">
         <v>124.9867253372344</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>188.9067514809596</v>
+        <v>358.0033666530333</v>
       </c>
       <c r="K29" t="n">
-        <v>334.373279977657</v>
+        <v>334.3732799776569</v>
       </c>
       <c r="L29" t="n">
-        <v>452.0941280474543</v>
+        <v>452.094128047454</v>
       </c>
       <c r="M29" t="n">
-        <v>535.0311574170966</v>
+        <v>535.0311574170964</v>
       </c>
       <c r="N29" t="n">
-        <v>985.6958578178147</v>
+        <v>548.3489334058304</v>
       </c>
       <c r="O29" t="n">
-        <v>504.3203876140367</v>
+        <v>504.3203876140366</v>
       </c>
       <c r="P29" t="n">
-        <v>703.7670875495811</v>
+        <v>693.9859862566049</v>
       </c>
       <c r="Q29" t="n">
-        <v>248.4019774719993</v>
+        <v>460.7169681319039</v>
       </c>
       <c r="R29" t="n">
-        <v>58.22159958630425</v>
+        <v>123.9380194592866</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>102.1362615524913</v>
+        <v>93.50364082206991</v>
       </c>
       <c r="K30" t="n">
-        <v>238.7568826046214</v>
+        <v>238.7568826046213</v>
       </c>
       <c r="L30" t="n">
-        <v>367.8285387025504</v>
+        <v>367.8285387025502</v>
       </c>
       <c r="M30" t="n">
-        <v>448.7909474077395</v>
+        <v>448.7909474077393</v>
       </c>
       <c r="N30" t="n">
-        <v>475.2232951500631</v>
+        <v>475.223295150063</v>
       </c>
       <c r="O30" t="n">
-        <v>412.2922350811808</v>
+        <v>412.2922350811807</v>
       </c>
       <c r="P30" t="n">
         <v>311.3725172374786</v>
       </c>
       <c r="Q30" t="n">
-        <v>157.7208510935055</v>
+        <v>166.3534718239277</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.30044955732525</v>
+        <v>92.30044955732522</v>
       </c>
       <c r="K31" t="n">
         <v>252.3177264055757</v>
@@ -37005,7 +37005,7 @@
         <v>348.3731386953787</v>
       </c>
       <c r="P31" t="n">
-        <v>281.1798003634537</v>
+        <v>281.1798003634536</v>
       </c>
       <c r="Q31" t="n">
         <v>124.9867253372344</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>188.9067514809596</v>
+        <v>358.0033666530333</v>
       </c>
       <c r="K32" t="n">
-        <v>334.373279977657</v>
+        <v>334.3732799776569</v>
       </c>
       <c r="L32" t="n">
-        <v>869.7553425979047</v>
+        <v>452.094128047454</v>
       </c>
       <c r="M32" t="n">
-        <v>862.9076676812938</v>
+        <v>535.0311574170964</v>
       </c>
       <c r="N32" t="n">
-        <v>548.3489334058306</v>
+        <v>548.3489334058304</v>
       </c>
       <c r="O32" t="n">
-        <v>504.3203876140367</v>
+        <v>504.3203876140366</v>
       </c>
       <c r="P32" t="n">
-        <v>395.5762871469173</v>
+        <v>693.9859862566049</v>
       </c>
       <c r="Q32" t="n">
-        <v>248.4019774719993</v>
+        <v>460.7169681319039</v>
       </c>
       <c r="R32" t="n">
-        <v>58.22159958630425</v>
+        <v>123.9380194592866</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>93.50364082206994</v>
+        <v>93.50364082206991</v>
       </c>
       <c r="K33" t="n">
-        <v>238.7568826046214</v>
+        <v>247.3895033350439</v>
       </c>
       <c r="L33" t="n">
-        <v>367.8285387025504</v>
+        <v>367.8285387025502</v>
       </c>
       <c r="M33" t="n">
-        <v>448.7909474077395</v>
+        <v>448.7909474077393</v>
       </c>
       <c r="N33" t="n">
-        <v>475.2232951500631</v>
+        <v>475.223295150063</v>
       </c>
       <c r="O33" t="n">
-        <v>412.2922350811808</v>
+        <v>412.2922350811807</v>
       </c>
       <c r="P33" t="n">
-        <v>320.0051379679</v>
+        <v>311.3725172374786</v>
       </c>
       <c r="Q33" t="n">
-        <v>157.7208510935055</v>
+        <v>157.7208510935054</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.30044955732525</v>
+        <v>92.30044955732524</v>
       </c>
       <c r="K34" t="n">
         <v>252.3177264055757</v>
@@ -37236,13 +37236,13 @@
         <v>393.5002632388612</v>
       </c>
       <c r="N34" t="n">
-        <v>390.7608690083265</v>
+        <v>390.7608690083264</v>
       </c>
       <c r="O34" t="n">
         <v>348.3731386953787</v>
       </c>
       <c r="P34" t="n">
-        <v>281.1798003634537</v>
+        <v>281.1798003634536</v>
       </c>
       <c r="Q34" t="n">
         <v>124.9867253372344</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>358.0033666530334</v>
+        <v>358.0033666530333</v>
       </c>
       <c r="K35" t="n">
-        <v>334.373279977657</v>
+        <v>334.3732799776569</v>
       </c>
       <c r="L35" t="n">
-        <v>452.0941280474543</v>
+        <v>452.094128047454</v>
       </c>
       <c r="M35" t="n">
-        <v>535.0311574170966</v>
+        <v>535.0311574170964</v>
       </c>
       <c r="N35" t="n">
-        <v>548.3489334058306</v>
+        <v>548.3489334058304</v>
       </c>
       <c r="O35" t="n">
-        <v>693.2463692121455</v>
+        <v>504.3203876140366</v>
       </c>
       <c r="P35" t="n">
-        <v>717.3749953183999</v>
+        <v>693.9859862566044</v>
       </c>
       <c r="Q35" t="n">
-        <v>248.4019774719993</v>
+        <v>460.7169681319039</v>
       </c>
       <c r="R35" t="n">
-        <v>123.9380194592867</v>
+        <v>123.9380194592866</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>93.50364082206994</v>
+        <v>93.50364082206991</v>
       </c>
       <c r="K36" t="n">
-        <v>238.7568826046214</v>
+        <v>238.7568826046213</v>
       </c>
       <c r="L36" t="n">
-        <v>367.8285387025504</v>
+        <v>367.8285387025502</v>
       </c>
       <c r="M36" t="n">
-        <v>448.7909474077395</v>
+        <v>448.7909474077393</v>
       </c>
       <c r="N36" t="n">
-        <v>475.2232951500631</v>
+        <v>475.223295150063</v>
       </c>
       <c r="O36" t="n">
-        <v>412.2922350811808</v>
+        <v>412.2922350811807</v>
       </c>
       <c r="P36" t="n">
-        <v>320.0051379679</v>
+        <v>320.0051379679009</v>
       </c>
       <c r="Q36" t="n">
-        <v>157.7208510935055</v>
+        <v>157.7208510935054</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>393.5002632388612</v>
       </c>
       <c r="N37" t="n">
-        <v>390.7608690083265</v>
+        <v>390.7608690083263</v>
       </c>
       <c r="O37" t="n">
         <v>348.3731386953787</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>188.9067514809596</v>
+        <v>188.9067514809595</v>
       </c>
       <c r="K38" t="n">
-        <v>658.5186925488217</v>
+        <v>480.080886087936</v>
       </c>
       <c r="L38" t="n">
-        <v>452.0941280474543</v>
+        <v>452.094128047454</v>
       </c>
       <c r="M38" t="n">
-        <v>535.0311574170966</v>
+        <v>535.0311574170964</v>
       </c>
       <c r="N38" t="n">
-        <v>904.0248257763319</v>
+        <v>548.3489334058304</v>
       </c>
       <c r="O38" t="n">
-        <v>504.3203876140367</v>
+        <v>504.3203876140366</v>
       </c>
       <c r="P38" t="n">
-        <v>395.5762871469173</v>
+        <v>717.3749953183999</v>
       </c>
       <c r="Q38" t="n">
-        <v>248.4019774719993</v>
+        <v>460.7169681319039</v>
       </c>
       <c r="R38" t="n">
-        <v>123.9380194592867</v>
+        <v>123.9380194592866</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>93.50364082206994</v>
+        <v>93.50364082206991</v>
       </c>
       <c r="K39" t="n">
-        <v>238.7568826046214</v>
+        <v>238.7568826046213</v>
       </c>
       <c r="L39" t="n">
-        <v>367.8285387025504</v>
+        <v>367.8285387025502</v>
       </c>
       <c r="M39" t="n">
-        <v>448.7909474077395</v>
+        <v>448.7909474077393</v>
       </c>
       <c r="N39" t="n">
-        <v>475.2232951500631</v>
+        <v>475.223295150063</v>
       </c>
       <c r="O39" t="n">
-        <v>412.2922350811808</v>
+        <v>412.2922350811807</v>
       </c>
       <c r="P39" t="n">
         <v>311.3725172374786</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.3534718239268</v>
+        <v>166.3534718239277</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>252.3177264055757</v>
       </c>
       <c r="L40" t="n">
-        <v>365.7045673983037</v>
+        <v>365.7045673983038</v>
       </c>
       <c r="M40" t="n">
         <v>393.5002632388612</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>188.9067514809596</v>
+        <v>358.0033666530333</v>
       </c>
       <c r="K41" t="n">
-        <v>334.373279977657</v>
+        <v>632.7829790873441</v>
       </c>
       <c r="L41" t="n">
-        <v>452.0941280474543</v>
+        <v>452.094128047454</v>
       </c>
       <c r="M41" t="n">
-        <v>843.2219578197603</v>
+        <v>535.0311574170964</v>
       </c>
       <c r="N41" t="n">
-        <v>985.6958578178147</v>
+        <v>548.3489334058304</v>
       </c>
       <c r="O41" t="n">
-        <v>504.3203876140367</v>
+        <v>504.3203876140366</v>
       </c>
       <c r="P41" t="n">
-        <v>395.5762871469173</v>
+        <v>395.5762871469172</v>
       </c>
       <c r="Q41" t="n">
-        <v>248.4019774719993</v>
+        <v>460.7169681319039</v>
       </c>
       <c r="R41" t="n">
-        <v>58.22159958630425</v>
+        <v>123.9380194592866</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>93.50364082206994</v>
+        <v>102.1362615524925</v>
       </c>
       <c r="K42" t="n">
-        <v>238.7568826046214</v>
+        <v>238.7568826046213</v>
       </c>
       <c r="L42" t="n">
-        <v>367.8285387025504</v>
+        <v>367.8285387025502</v>
       </c>
       <c r="M42" t="n">
-        <v>448.7909474077395</v>
+        <v>448.7909474077393</v>
       </c>
       <c r="N42" t="n">
-        <v>475.2232951500631</v>
+        <v>475.223295150063</v>
       </c>
       <c r="O42" t="n">
-        <v>412.2922350811808</v>
+        <v>412.2922350811807</v>
       </c>
       <c r="P42" t="n">
-        <v>320.0051379679</v>
+        <v>311.3725172374786</v>
       </c>
       <c r="Q42" t="n">
-        <v>157.7208510935055</v>
+        <v>157.7208510935054</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.30044955732599</v>
+        <v>92.30044955732524</v>
       </c>
       <c r="K43" t="n">
         <v>252.3177264055757</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>188.9067514809596</v>
+        <v>188.9067514809595</v>
       </c>
       <c r="K44" t="n">
-        <v>658.5186925488217</v>
+        <v>658.5186925488216</v>
       </c>
       <c r="L44" t="n">
-        <v>661.1714496310326</v>
+        <v>452.094128047454</v>
       </c>
       <c r="M44" t="n">
-        <v>535.0311574170966</v>
+        <v>535.0311574170964</v>
       </c>
       <c r="N44" t="n">
-        <v>548.3489334058306</v>
+        <v>548.3489334058304</v>
       </c>
       <c r="O44" t="n">
-        <v>504.3203876140367</v>
+        <v>647.6812893246332</v>
       </c>
       <c r="P44" t="n">
-        <v>395.5762871469173</v>
+        <v>395.5762871469172</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.716968131904</v>
+        <v>460.7169681319039</v>
       </c>
       <c r="R44" t="n">
-        <v>58.22159958630425</v>
+        <v>123.9380194592866</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>93.50364082206994</v>
+        <v>93.50364082206991</v>
       </c>
       <c r="K45" t="n">
-        <v>247.3895033350427</v>
+        <v>238.7568826046213</v>
       </c>
       <c r="L45" t="n">
-        <v>367.8285387025504</v>
+        <v>367.8285387025502</v>
       </c>
       <c r="M45" t="n">
-        <v>448.7909474077395</v>
+        <v>457.423568138162</v>
       </c>
       <c r="N45" t="n">
-        <v>475.2232951500631</v>
+        <v>475.223295150063</v>
       </c>
       <c r="O45" t="n">
-        <v>412.2922350811808</v>
+        <v>412.2922350811807</v>
       </c>
       <c r="P45" t="n">
         <v>311.3725172374786</v>
       </c>
       <c r="Q45" t="n">
-        <v>157.7208510935055</v>
+        <v>157.7208510935054</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.30044955732524</v>
+        <v>92.30044955732525</v>
       </c>
       <c r="K46" t="n">
-        <v>252.3177264055765</v>
+        <v>252.3177264055757</v>
       </c>
       <c r="L46" t="n">
         <v>365.7045673983038</v>
